--- a/INTLINE/data/548/BNM/Gross National Income (GNI) by Expenditure Components in ConstantQ_historical.xlsx
+++ b/INTLINE/data/548/BNM/Gross National Income (GNI) by Expenditure Components in ConstantQ_historical.xlsx
@@ -1,37 +1,462 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income (GNI) by" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gross National Income (GNI) by" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+  <si>
+    <t>1991-Q1</t>
+  </si>
+  <si>
+    <t>1991-Q2</t>
+  </si>
+  <si>
+    <t>1991-Q3</t>
+  </si>
+  <si>
+    <t>1991-Q4</t>
+  </si>
+  <si>
+    <t>1992-Q1</t>
+  </si>
+  <si>
+    <t>1992-Q2</t>
+  </si>
+  <si>
+    <t>1992-Q3</t>
+  </si>
+  <si>
+    <t>1992-Q4</t>
+  </si>
+  <si>
+    <t>1993-Q1</t>
+  </si>
+  <si>
+    <t>1993-Q2</t>
+  </si>
+  <si>
+    <t>1993-Q3</t>
+  </si>
+  <si>
+    <t>1993-Q4</t>
+  </si>
+  <si>
+    <t>1994-Q1</t>
+  </si>
+  <si>
+    <t>1994-Q2</t>
+  </si>
+  <si>
+    <t>1994-Q3</t>
+  </si>
+  <si>
+    <t>1994-Q4</t>
+  </si>
+  <si>
+    <t>1995-Q1</t>
+  </si>
+  <si>
+    <t>1995-Q2</t>
+  </si>
+  <si>
+    <t>1995-Q3</t>
+  </si>
+  <si>
+    <t>1995-Q4</t>
+  </si>
+  <si>
+    <t>1996-Q1</t>
+  </si>
+  <si>
+    <t>1996-Q2</t>
+  </si>
+  <si>
+    <t>1996-Q3</t>
+  </si>
+  <si>
+    <t>1996-Q4</t>
+  </si>
+  <si>
+    <t>1997-Q1</t>
+  </si>
+  <si>
+    <t>1997-Q2</t>
+  </si>
+  <si>
+    <t>1997-Q3</t>
+  </si>
+  <si>
+    <t>1997-Q4</t>
+  </si>
+  <si>
+    <t>1998-Q1</t>
+  </si>
+  <si>
+    <t>1998-Q2</t>
+  </si>
+  <si>
+    <t>1998-Q3</t>
+  </si>
+  <si>
+    <t>1998-Q4</t>
+  </si>
+  <si>
+    <t>1999-Q1</t>
+  </si>
+  <si>
+    <t>1999-Q2</t>
+  </si>
+  <si>
+    <t>1999-Q3</t>
+  </si>
+  <si>
+    <t>1999-Q4</t>
+  </si>
+  <si>
+    <t>2000-Q1</t>
+  </si>
+  <si>
+    <t>2000-Q2</t>
+  </si>
+  <si>
+    <t>2000-Q3</t>
+  </si>
+  <si>
+    <t>2000-Q4</t>
+  </si>
+  <si>
+    <t>2001-Q1</t>
+  </si>
+  <si>
+    <t>2001-Q2</t>
+  </si>
+  <si>
+    <t>2001-Q3</t>
+  </si>
+  <si>
+    <t>2001-Q4</t>
+  </si>
+  <si>
+    <t>2002-Q1</t>
+  </si>
+  <si>
+    <t>2002-Q2</t>
+  </si>
+  <si>
+    <t>2002-Q3</t>
+  </si>
+  <si>
+    <t>2002-Q4</t>
+  </si>
+  <si>
+    <t>2003-Q1</t>
+  </si>
+  <si>
+    <t>2003-Q2</t>
+  </si>
+  <si>
+    <t>2003-Q3</t>
+  </si>
+  <si>
+    <t>2003-Q4</t>
+  </si>
+  <si>
+    <t>2004-Q1</t>
+  </si>
+  <si>
+    <t>2004-Q2</t>
+  </si>
+  <si>
+    <t>2004-Q3</t>
+  </si>
+  <si>
+    <t>2004-Q4</t>
+  </si>
+  <si>
+    <t>2005-Q1</t>
+  </si>
+  <si>
+    <t>2005-Q2</t>
+  </si>
+  <si>
+    <t>2005-Q3</t>
+  </si>
+  <si>
+    <t>2005-Q4</t>
+  </si>
+  <si>
+    <t>2006-Q1</t>
+  </si>
+  <si>
+    <t>2006-Q2</t>
+  </si>
+  <si>
+    <t>2006-Q3</t>
+  </si>
+  <si>
+    <t>2006-Q4</t>
+  </si>
+  <si>
+    <t>2007-Q1</t>
+  </si>
+  <si>
+    <t>2007-Q2</t>
+  </si>
+  <si>
+    <t>2007-Q3</t>
+  </si>
+  <si>
+    <t>2007-Q4</t>
+  </si>
+  <si>
+    <t>2008-Q1</t>
+  </si>
+  <si>
+    <t>2008-Q2</t>
+  </si>
+  <si>
+    <t>2008-Q3</t>
+  </si>
+  <si>
+    <t>2008-Q4</t>
+  </si>
+  <si>
+    <t>2009-Q1</t>
+  </si>
+  <si>
+    <t>2009-Q2</t>
+  </si>
+  <si>
+    <t>2009-Q3</t>
+  </si>
+  <si>
+    <t>2009-Q4</t>
+  </si>
+  <si>
+    <t>2010-Q1</t>
+  </si>
+  <si>
+    <t>2010-Q2</t>
+  </si>
+  <si>
+    <t>2010-Q3</t>
+  </si>
+  <si>
+    <t>2010-Q4</t>
+  </si>
+  <si>
+    <t>2011-Q1</t>
+  </si>
+  <si>
+    <t>2011-Q2</t>
+  </si>
+  <si>
+    <t>2011-Q3</t>
+  </si>
+  <si>
+    <t>2011-Q4</t>
+  </si>
+  <si>
+    <t>2012-Q1</t>
+  </si>
+  <si>
+    <t>2012-Q2</t>
+  </si>
+  <si>
+    <t>2012-Q3</t>
+  </si>
+  <si>
+    <t>2012-Q4</t>
+  </si>
+  <si>
+    <t>2013-Q1</t>
+  </si>
+  <si>
+    <t>2013-Q2</t>
+  </si>
+  <si>
+    <t>2013-Q3</t>
+  </si>
+  <si>
+    <t>2013-Q4</t>
+  </si>
+  <si>
+    <t>2014-Q1</t>
+  </si>
+  <si>
+    <t>2014-Q2</t>
+  </si>
+  <si>
+    <t>2014-Q3</t>
+  </si>
+  <si>
+    <t>2014-Q4</t>
+  </si>
+  <si>
+    <t>2015-Q1</t>
+  </si>
+  <si>
+    <t>2015-Q2</t>
+  </si>
+  <si>
+    <t>2015-Q3</t>
+  </si>
+  <si>
+    <t>2015-Q4</t>
+  </si>
+  <si>
+    <t>2016-Q1</t>
+  </si>
+  <si>
+    <t>2016-Q2</t>
+  </si>
+  <si>
+    <t>2016-Q3</t>
+  </si>
+  <si>
+    <t>2016-Q4</t>
+  </si>
+  <si>
+    <t>2017-Q1</t>
+  </si>
+  <si>
+    <t>2017-Q2</t>
+  </si>
+  <si>
+    <t>2017-Q3</t>
+  </si>
+  <si>
+    <t>2017-Q4</t>
+  </si>
+  <si>
+    <t>2018-Q1</t>
+  </si>
+  <si>
+    <t>2018-Q2</t>
+  </si>
+  <si>
+    <t>2018-Q3</t>
+  </si>
+  <si>
+    <t>2018-Q4</t>
+  </si>
+  <si>
+    <t>2019-Q1</t>
+  </si>
+  <si>
+    <t>2019-Q2</t>
+  </si>
+  <si>
+    <t>2019-Q3</t>
+  </si>
+  <si>
+    <t>2019-Q4</t>
+  </si>
+  <si>
+    <t>2020-Q1</t>
+  </si>
+  <si>
+    <t>2020-Q2</t>
+  </si>
+  <si>
+    <t>2020-Q3</t>
+  </si>
+  <si>
+    <t>2020-Q4</t>
+  </si>
+  <si>
+    <t>2021-Q1</t>
+  </si>
+  <si>
+    <t>2021-Q2</t>
+  </si>
+  <si>
+    <t>2021-Q3</t>
+  </si>
+  <si>
+    <t>2021-Q4</t>
+  </si>
+  <si>
+    <t>2022-Q1</t>
+  </si>
+  <si>
+    <t>ConstantFinal consumption expenditureTotal</t>
+  </si>
+  <si>
+    <t>ConstantFinal consumption expenditurePrivate sector</t>
+  </si>
+  <si>
+    <t>ConstantFinal consumption expenditurePublic sector</t>
+  </si>
+  <si>
+    <t>ConstantGross fixed capital formationTotal</t>
+  </si>
+  <si>
+    <t>ConstantChanges in inventories and valuables</t>
+  </si>
+  <si>
+    <t>ConstantExports of goods and services</t>
+  </si>
+  <si>
+    <t>ConstantImports of goods and services</t>
+  </si>
+  <si>
+    <t>CurrentFinal consumption expenditureTotal</t>
+  </si>
+  <si>
+    <t>CurrentFinal consumption expenditurePrivate sector</t>
+  </si>
+  <si>
+    <t>CurrentFinal consumption expenditurePublic sector</t>
+  </si>
+  <si>
+    <t>CurrentGross fixed capital formationTotal</t>
+  </si>
+  <si>
+    <t>CurrentChanges in inventories and valuables</t>
+  </si>
+  <si>
+    <t>CurrentExports of goods and services</t>
+  </si>
+  <si>
+    <t>CurrentImports of goods and services</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +471,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +490,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,5948 +787,5711 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:DU15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:DV15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q4</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q1</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q3</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q4</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q2</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q3</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q4</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q2</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q3</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q4</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q1</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q2</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q3</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q4</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q1</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q2</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q3</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q3</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q4</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q1</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q2</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q4</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q1</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q2</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q3</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q4</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q1</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q2</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q3</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q4</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q1</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q2</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q3</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q4</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q1</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q2</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q3</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q4</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q2</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q3</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q4</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q1</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q2</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q3</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q4</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q1</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q2</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q3</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q4</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q1</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q2</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q3</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q4</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q1</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q2</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q3</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q4</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q1</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q2</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q3</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q4</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q1</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q2</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q3</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q4</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q1</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q2</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q3</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q4</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q1</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q2</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q3</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q4</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q1</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q2</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q3</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q4</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q1</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q2</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q3</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q4</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q1</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q2</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q3</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q4</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q1</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q2</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q3</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q4</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q1</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q2</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q3</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q4</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q1</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q2</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q3</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q4</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q2</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q3</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+    <row r="1" spans="1:126">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ConstantFinal consumption expenditureTotal</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:126">
+      <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
         <v>41110.67623</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>37331.42056</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>42127.57599</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>44101.2947</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>42951.62591</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>40064.03891</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>43437.26471</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>45976.54148</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>42072.06851</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>44207.78247</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>46752.02674</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>50950.24747</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>47694.9301</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>46148.07367</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>50022.47098</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>56806.57394</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>52819.59556</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>52667.08807</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>54720.18586</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>61519.92151</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>55993.9962</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>54206.42126</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>59586.89036</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>64449.77784</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>58718.61098</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>58735.23133</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>61129.04011</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>66361.79371</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>53764.91006</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>54123.48496</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>55211.50633</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>57404.91256</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>53655.82826</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>55320.90525</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>59946.90051</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>63985.32734</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>60837.87419</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>60497.57954</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>64048.69684</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>70896.55653</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>64009.97664</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>63604.72318</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>67088.53595999999</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>75569.53638000001</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>67302.67332</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>66776.97560999999</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>71948.83364</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>79270.51767</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>73334.75255999999</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>72208.042</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>76479.0465</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>86737.69908000001</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>80511.11141</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>79760.783</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>83075.40364</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>94296.80719000001</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>86724.44534000001</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>84866.61765</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>90803.3268</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>104057.1647</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>91405.19725</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>90988.29182</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>97080.34488999999</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>110312.8907</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>98277.40535</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>100315.7245</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>109198.1972</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>119509.387</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>109299.9728</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>108950.8563</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>117555.6743</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>127105.9938</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>109223.7395</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>110134.0943</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>120968.3485</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2">
         <v>129330.5973</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="BZ2">
         <v>116412.6758</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CA2">
         <v>119705.5897</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CB2">
         <v>125984.2555</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CC2">
         <v>136417.1402</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CD2">
         <v>124718.5452</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CE2">
         <v>126639.4701</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CF2">
         <v>137955.0829</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CG2">
         <v>150970.1919</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CH2">
         <v>135373.092</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CI2">
         <v>138916.773</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CJ2">
         <v>148966.1225</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CK2">
         <v>158676.7447</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CL2">
         <v>142423.703</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CM2">
         <v>149563.4565</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CN2">
         <v>160524.3385</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CO2">
         <v>169810.1455</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CP2">
         <v>153625.3145</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CQ2">
         <v>157280.9109</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CR2">
         <v>170918.6929</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CS2">
         <v>180470.3209</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CT2">
         <v>187500.541</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CU2">
         <v>188986.567</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="CV2">
         <v>200542.228</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CW2">
         <v>212091.222</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CX2">
         <v>196249.159</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CY2">
         <v>200389.953</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="CZ2">
         <v>211489.516</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DA2">
         <v>219771.255</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DB2">
         <v>209575.189</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DC2">
         <v>213095.276</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DD2">
         <v>225486.239</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DE2">
         <v>234994.698</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DF2">
         <v>221118.896</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DG2">
         <v>228246.598</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DH2">
         <v>244148.612</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DI2">
         <v>252569.196</v>
       </c>
-      <c r="DJ2" t="n">
-        <v>237619.148</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>242997.082</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>258876.232</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>269297.784</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>252841.522</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>206207.504</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>257126.306</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>263184.628</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>252145.804</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>229287.48</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>251529.239</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>273170.424</v>
+      <c r="DJ2">
+        <v>237581.159</v>
+      </c>
+      <c r="DK2">
+        <v>243005.932</v>
+      </c>
+      <c r="DL2">
+        <v>258721.82</v>
+      </c>
+      <c r="DM2">
+        <v>269064.448</v>
+      </c>
+      <c r="DN2">
+        <v>253155.846</v>
+      </c>
+      <c r="DO2">
+        <v>206500.844</v>
+      </c>
+      <c r="DP2">
+        <v>257235.775</v>
+      </c>
+      <c r="DQ2">
+        <v>264849.09</v>
+      </c>
+      <c r="DR2">
+        <v>252301.017</v>
+      </c>
+      <c r="DS2">
+        <v>229289.4</v>
+      </c>
+      <c r="DT2">
+        <v>251231.539</v>
+      </c>
+      <c r="DU2">
+        <v>273378.917</v>
+      </c>
+      <c r="DV2">
+        <v>266685.47</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ConstantFinal consumption expenditurePrivate sector</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:126">
+      <c r="A3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3">
         <v>39885.9440996412</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>34270.8845887678</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>37588.5374424049</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>37366.2077683424</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>42042.5419668405</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>36014.937390896</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>39463.5177143762</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>38532.2033997234</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>41190.2782137417</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>38522.3220795293</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>41647.2892196865</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>44448.6431462133</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>46615.1223336069</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>42166.0584541145</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>45283.6145965492</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>47311.7553315312</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>53047.8609920533</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>47996.0366716357</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>49194.1465860711</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>52282.0587830771</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>55105.645672464</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>50545.4169635174</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>53507.3423356237</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>57264.7138772888</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>57699.4919203736</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>54260.792901934</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>56718.7710047497</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>57072.0281638091</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>52452.5115336968</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>49391.7729748021</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>49740.0894737644</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>51059.2455530022</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>51054.304892905</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>50169.926841598</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>51778.1115137866</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>55434.1995310376</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>58885.2501921432</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>56095.4065150695</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>58817.0573809166</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>62514.6231452079</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>61129.5513794036</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>58116.9445189894</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>60027.8586291414</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>64193.6816971893</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>63739.0629556781</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>60211.2215215509</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>62202.4516093701</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>66742.5774412622</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>68085.2181245253</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>65187.7813452937</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>67307.8200765412</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>72831.4377859024</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>74195.2940104361</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>71913.10792804979</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>74298.34092517861</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>79934.09792411271</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>80945.910617089</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>77450.2923098336</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>81975.607663933</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>87326.6346545774</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>85986.4945549066</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>83465.9946818688</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>87029.99732342501</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>92877.3755579295</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>92484.5479082589</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>91979.8164790397</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>99393.1979401337</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>101988.039010158</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>103097.788788862</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>100636.073904923</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>108057.998038236</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>107698.011153919</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>102280.590654377</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>100994.016601967</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX3">
         <v>109241.461084282</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3">
         <v>109297.39908656</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="BZ3">
         <v>108114.278960167</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CA3">
         <v>109455.797209253</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CB3">
         <v>116985.866905017</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CC3">
         <v>116318.530020905</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CD3">
         <v>115379.695395907</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CE3">
         <v>116268.337161246</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CF3">
         <v>125516.371553544</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CG3">
         <v>124660.811445708</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CH3">
         <v>124712.145052179</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CI3">
         <v>127117.980075412</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CJ3">
         <v>137109.781388122</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CK3">
         <v>133094.352615347</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CL3">
         <v>132704.217206174</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CM3">
         <v>135867.508111545</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CN3">
         <v>148115.70661532</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CO3">
         <v>143188.821140997</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CP3">
         <v>141923.732928211</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CQ3">
         <v>144721.984854239</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CR3">
         <v>158188.500951572</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CS3">
         <v>154101.205129739</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CT3">
         <v>154769.449</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="CU3">
         <v>154019.558</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="CV3">
         <v>164632.247</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="CW3">
         <v>161678.18</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CX3">
         <v>162610.99</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="CY3">
         <v>163473.83</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="CZ3">
         <v>174771.494</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DA3">
         <v>171403.966</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DB3">
         <v>173330.089</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DC3">
         <v>174884.185</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DD3">
         <v>187229.352</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DE3">
         <v>183258.184</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DF3">
         <v>184719.862</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DG3">
         <v>188796.072</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DH3">
         <v>203883.717</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DI3">
         <v>198654.113</v>
       </c>
-      <c r="DJ3" t="n">
-        <v>199011.964</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>203540.888</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>218310.366</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>214847.346</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>212341.204</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>165885.257</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>213799.707</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>207420.581</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>209251.13</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>185316.479</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>204714.843</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>215006.395</v>
+      <c r="DJ3">
+        <v>199021.751</v>
+      </c>
+      <c r="DK3">
+        <v>203545.432</v>
+      </c>
+      <c r="DL3">
+        <v>218308.532</v>
+      </c>
+      <c r="DM3">
+        <v>214838.592</v>
+      </c>
+      <c r="DN3">
+        <v>212651.281</v>
+      </c>
+      <c r="DO3">
+        <v>166101.054</v>
+      </c>
+      <c r="DP3">
+        <v>214076.862</v>
+      </c>
+      <c r="DQ3">
+        <v>207684.612</v>
+      </c>
+      <c r="DR3">
+        <v>209524.18</v>
+      </c>
+      <c r="DS3">
+        <v>185559.36</v>
+      </c>
+      <c r="DT3">
+        <v>204997.4</v>
+      </c>
+      <c r="DU3">
+        <v>215307.069</v>
+      </c>
+      <c r="DV3">
+        <v>221036.068</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ConstantFinal consumption expenditurePublic sector</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:126">
+      <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4">
         <v>6600.46376044881</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7825.57590763667</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>9851.369963089221</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>12177.7065131434</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>6547.69675740201</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>9117.22036263418</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>9493.472033431521</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>13093.0992973436</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>6405.45527194079</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>11204.9582909754</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>10996.1844977046</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>12865.9717643889</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>7336.90757836431</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>9860.54683293113</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>11085.6589815748</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>16456.422158459</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>6786.29537765908</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>11372.4361685019</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>12448.4241778471</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>16839.5564801819</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>8256.888797485461</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>10626.8154807445</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>13613.8866710625</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>15297.8423118017</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>8740.968691836841</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>11991.8748944773</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>12248.8272558739</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>17530.1159532554</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>8360.12858611855</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>11622.5058775172</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>12462.1894840658</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>13574.8849727786</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>9557.710123780689</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>12175.4122956829</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>15625.9154173848</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>16520.6602415292</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>9899.54853121505</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>12157.5190859084</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>13408.0649959545</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>17277.6238188912</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>11192.3131041149</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>13590.0419910136</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>15530.6446663238</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>20711.8936696465</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>12271.0727308253</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>15024.0207120793</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>18699.9560122732</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>22285.6307229178</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>14655.6992740798</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>16171.2036889319</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>18759.6444666525</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>24571.26178086</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>16609.4042930343</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>17950.2107926297</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>19263.3567889761</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>26002.3288700048</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>16927.788308574</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>18221.4011400073</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>20335.272647194</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>29522.2373627666</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>17209.8777475597</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>19132.4263214691</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>22316.7721453632</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>31014.2245957866</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>18472.5281044834</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>21133.6796686853</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>23692.2413440281</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>32313.8638001285</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>20318.3516087942</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>22258.3507396396</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>24511.0271939194</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>35094.5675351411</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>21004.9051150474</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>23191.1271515497</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>27059.2681363336</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>35977.254909921</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="BZ4">
         <v>23231.9630749468</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CA4">
         <v>25503.1275094728</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CB4">
         <v>25158.7516079694</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CC4">
         <v>36978.0329377633</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CD4">
         <v>25311.0923494444</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CE4">
         <v>26536.2552139833</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CF4">
         <v>29980.0142290181</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CG4">
         <v>44746.3379308684</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CH4">
         <v>27966.3271040273</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CI4">
         <v>29505.8268506239</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CJ4">
         <v>30891.9130336223</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CK4">
         <v>45084.2768996334</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CL4">
         <v>28015.6769216883</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CM4">
         <v>32700.6911331079</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CN4">
         <v>32943.1489329203</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CO4">
         <v>47536.7482729573</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CP4">
         <v>31363.9547677704</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CQ4">
         <v>32654.5597818162</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CR4">
         <v>34623.1883776383</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CS4">
         <v>48712.5613198352</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="CT4">
         <v>32731.092</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="CU4">
         <v>34967.009</v>
       </c>
-      <c r="CV4" t="n">
+      <c r="CV4">
         <v>35909.981</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="CW4">
         <v>50413.042</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="CX4">
         <v>33638.169</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="CY4">
         <v>36916.123</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="CZ4">
         <v>36718.022</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DA4">
         <v>48367.289</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DB4">
         <v>36245.1</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DC4">
         <v>38211.091</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DD4">
         <v>38256.887</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DE4">
         <v>51736.514</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="DF4">
         <v>36399.034</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="DG4">
         <v>39450.526</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DH4">
         <v>40264.895</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DI4">
         <v>53915.083</v>
       </c>
-      <c r="DJ4" t="n">
-        <v>38607.184</v>
-      </c>
-      <c r="DK4" t="n">
-        <v>39456.194</v>
-      </c>
-      <c r="DL4" t="n">
-        <v>40565.866</v>
-      </c>
-      <c r="DM4" t="n">
-        <v>54450.438</v>
-      </c>
-      <c r="DN4" t="n">
-        <v>40500.318</v>
-      </c>
-      <c r="DO4" t="n">
-        <v>40322.247</v>
-      </c>
-      <c r="DP4" t="n">
-        <v>43326.599</v>
-      </c>
-      <c r="DQ4" t="n">
-        <v>55764.047</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>42894.674</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>43971.001</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>46814.396</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>58164.029</v>
+      <c r="DJ4">
+        <v>38559.408</v>
+      </c>
+      <c r="DK4">
+        <v>39460.5</v>
+      </c>
+      <c r="DL4">
+        <v>40413.288</v>
+      </c>
+      <c r="DM4">
+        <v>54225.856</v>
+      </c>
+      <c r="DN4">
+        <v>40504.565</v>
+      </c>
+      <c r="DO4">
+        <v>40399.79</v>
+      </c>
+      <c r="DP4">
+        <v>43158.913</v>
+      </c>
+      <c r="DQ4">
+        <v>57164.478</v>
+      </c>
+      <c r="DR4">
+        <v>42776.837</v>
+      </c>
+      <c r="DS4">
+        <v>43730.04</v>
+      </c>
+      <c r="DT4">
+        <v>46234.139</v>
+      </c>
+      <c r="DU4">
+        <v>58071.848</v>
+      </c>
+      <c r="DV4">
+        <v>45649.402</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ConstantGross fixed capital formationTotal</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:126">
+      <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5">
         <v>22156.8627396205</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>22087.1390999167</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>25309.67820035</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>26124.5731311155</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>25490.5238640075</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>24605.9052935383</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>28819.8272579866</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>27275.0130535696</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>27392.6716809384</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>31257.9754936883</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>32245.0006585092</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>34201.62006652</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>32214.4965612617</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>32748.318122632</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>40075.8360053536</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>40221.8198569625</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>44239.6441247364</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>48401.2733711119</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>34986.0109156447</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>50811.0963825734</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>45204.8806375185</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>47978.573849302</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>48433.9563257601</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>51484.3651921376</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>45799.7103777772</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>54384.4324921055</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>57912.0124557662</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>52693.6344204727</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>34920.6450063488</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>31074.9509726303</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>25224.7025276294</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>29000.6729372507</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>26170.3292769867</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>27621.4523478674</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>27963.5339117577</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>30604.3164475486</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>32212.3177038612</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>36340.3012468221</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>37676.2384539202</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>34450.324660612</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>34902.9202097456</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>37243.9316707821</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>33880.6785384265</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>31751.9187831905</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>32074.9783648137</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>36516.6574435534</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>34954.4224618885</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>35027.7741543343</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>33311.032416241</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>36797.5788188779</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>36074.9866145712</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>36330.9372009779</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>34621.9988344213</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>38136.6373745907</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>37468.6687710415</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>37351.6181979898</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>35469.4309978617</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>40148.0905205004</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>40962.9680431941</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>40321.4668828962</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>39716.459500577</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>42723.9418442177</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>41369.3360603366</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>42921.5181354992</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>42652.7942969868</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>46057.0866695039</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>47156.4367186119</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>48137.2745177764</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>45855.3322954433</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>49683.1278679272</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>48225.2970192988</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>44571.036003616</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>42530.4619435447</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5">
         <v>46583.8169874294</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BX5">
         <v>45697.3073434124</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5">
         <v>48422.839183266</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="BZ5">
         <v>46055.2750189307</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CA5">
         <v>53256.1722164148</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CB5">
         <v>51686.1186582234</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CC5">
         <v>53923.3337850514</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CD5">
         <v>51077.8896948164</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CE5">
         <v>54871.8151484631</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CF5">
         <v>54637.1966634925</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CG5">
         <v>57348.0965040525</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CH5">
         <v>58030.8251759572</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CI5">
         <v>68704.2983381948</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CJ5">
         <v>66348.10606495989</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CK5">
         <v>66223.56923881439</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CL5">
         <v>65275.0878754027</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="CM5">
         <v>72690.5887107983</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="CN5">
         <v>72160.1952637322</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="CO5">
         <v>70262.12060096121</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="CP5">
         <v>69675.018420561</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="CQ5">
         <v>77742.1137213249</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="CR5">
         <v>73095.3333957712</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="CS5">
         <v>73307.71316178719</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="CT5">
         <v>74977.84699999999</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="CU5">
         <v>77560.09699999999</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="CV5">
         <v>76447.07000000001</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="CW5">
         <v>75438.399</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="CX5">
         <v>75035.501</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="CY5">
         <v>82264.87699999999</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="CZ5">
         <v>77890.91</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DA5">
         <v>76998.796</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DB5">
         <v>82183.122</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DC5">
         <v>85476.88499999999</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DD5">
         <v>83027.89200000001</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DE5">
         <v>80404.64200000001</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DF5">
         <v>82365.461</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="DG5">
         <v>86933.913</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DH5">
         <v>85387.83</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DI5">
         <v>80905.264</v>
       </c>
-      <c r="DJ5" t="n">
-        <v>79558.99800000001</v>
-      </c>
-      <c r="DK5" t="n">
-        <v>86427.769</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>82230.06600000001</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>80364.08900000001</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>75944.387</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>61343.487</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>72869.18399999999</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>70902.70299999999</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>73453.997</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>71450.16099999999</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>65026.522</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>68585.766</v>
+      <c r="DJ5">
+        <v>79544.342</v>
+      </c>
+      <c r="DK5">
+        <v>86418.57399999999</v>
+      </c>
+      <c r="DL5">
+        <v>82218.84</v>
+      </c>
+      <c r="DM5">
+        <v>80353.96400000001</v>
+      </c>
+      <c r="DN5">
+        <v>76018.342</v>
+      </c>
+      <c r="DO5">
+        <v>61358.271</v>
+      </c>
+      <c r="DP5">
+        <v>72872.336</v>
+      </c>
+      <c r="DQ5">
+        <v>70924.424</v>
+      </c>
+      <c r="DR5">
+        <v>73521.94899999999</v>
+      </c>
+      <c r="DS5">
+        <v>71403.637</v>
+      </c>
+      <c r="DT5">
+        <v>64993.251</v>
+      </c>
+      <c r="DU5">
+        <v>68784.413</v>
+      </c>
+      <c r="DV5">
+        <v>73632.36199999999</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ConstantChanges in inventories and valuables</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:126">
+      <c r="A6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6">
         <v>-100.228128696791</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>951.814306737893</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>27.5274437914907</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-294.331899177029</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>73.4065167990625</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>177.86963685843</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>-117.521010072228</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>-702.302732771294</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>149.283445204542</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>197.632929840284</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>102.69854032496</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>-292.214403408724</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>-189.868779030645</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>739.35890719385</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>400.912514874177</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>-425.969546972237</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>-1072.1586442764</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>485.612341908184</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>2273.4845256335</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>-1655.17578739334</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>-351.504282310776</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>22.9395365037859</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>10.2345624378079</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>-352.563030194928</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>-183.163376039898</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>1557.06515433433</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>-454.55573853911</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>-1016.75084087706</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>701.243984887142</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>172.222981708328</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>311.624780487204</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>-1266.96824669391</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>377.267146476629</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>500.787727667594</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>-57.5252992111516</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>-377.620062292988</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>164.45883089869</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>799.452650201961</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>713.960162710977</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>-456.612547693583</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>-595.184340395257</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>40.0270170441255</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>359.373000852693</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>-119.428436724049</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>140.747174062767</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>822.076616357339</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>914.9654004760411</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>-810.329557007434</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>-319.998598216896</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>407.448928932864</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>418.325835738334</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>-295.851865108753</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>-54.166995891235</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>693.2940397805889</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>882.1171419235289</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>-639.779658297678</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>-591.476272271052</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>1625.55451853843</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>3335.85930325298</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>-4063.85453058404</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>1822.07244928145</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>3607.60415347116</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>741.297580472941</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>-4136.88692494419</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>3525.33744959105</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>2604.024686191</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>-1945.63409602094</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>-2981.13782067889</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>402.458497601979</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>38.0449314623125</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>407.923149699837</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>-122.641649731427</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BV6">
         <v>-6421.41676223755</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BW6">
         <v>-258.433967001719</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BX6">
         <v>1519.05787176597</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BY6">
         <v>-106.164188322302</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="BZ6">
         <v>-9583.02365468164</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CA6">
         <v>12159.031679952</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CB6">
         <v>14773.8281343009</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CC6">
         <v>474.587838136615</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CD6">
         <v>7794.1925724744</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CE6">
         <v>7378.92821410486</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CF6">
         <v>5991.67145647476</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CG6">
         <v>-10228.7369152233</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CH6">
         <v>6822.20017321383</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CI6">
         <v>1610.86064290601</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CJ6">
         <v>8841.48015759318</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CK6">
         <v>-7488.44848444408</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CL6">
         <v>3198.90456282468</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CM6">
         <v>6867.83361918851</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="CN6">
         <v>-6918.03040976065</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CO6">
         <v>-10315.4404625752</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="CP6">
         <v>-4209.68539116372</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="CQ6">
         <v>-4983.17230043445</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CR6">
         <v>-4663.73817861173</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="CS6">
         <v>-6386.40076415569</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="CT6">
         <v>-2974.992</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="CU6">
         <v>2020.78</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="CV6">
         <v>-2072.445</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="CW6">
         <v>-2168.128</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="CX6">
         <v>2518.97</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="CY6">
         <v>-1284.92</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="CZ6">
         <v>-3148.997</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DA6">
         <v>2212.2</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DB6">
         <v>1984.562</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DC6">
         <v>-1283.261</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DD6">
         <v>-2913.791</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DE6">
         <v>3244.413</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="DF6">
         <v>-2505.48</v>
       </c>
-      <c r="DG6" t="n">
+      <c r="DG6">
         <v>172.329</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="DH6">
         <v>-5223.472</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DI6">
         <v>-1121.085</v>
       </c>
-      <c r="DJ6" t="n">
-        <v>-4697.979</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>-3368.643</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>-4495.636</v>
-      </c>
-      <c r="DM6" t="n">
-        <v>-1424.418</v>
-      </c>
-      <c r="DN6" t="n">
-        <v>-3000.246</v>
-      </c>
-      <c r="DO6" t="n">
-        <v>7306.732</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>-7793.249</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>-858.96</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>-1657.287</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>15776.653</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>865.444</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>3645.735</v>
+      <c r="DJ6">
+        <v>-4670.249</v>
+      </c>
+      <c r="DK6">
+        <v>-3475.194</v>
+      </c>
+      <c r="DL6">
+        <v>-4469.775</v>
+      </c>
+      <c r="DM6">
+        <v>-1267.366</v>
+      </c>
+      <c r="DN6">
+        <v>-2464.998</v>
+      </c>
+      <c r="DO6">
+        <v>9386.344999999999</v>
+      </c>
+      <c r="DP6">
+        <v>-9217.527</v>
+      </c>
+      <c r="DQ6">
+        <v>-2544.043</v>
+      </c>
+      <c r="DR6">
+        <v>-1927.832</v>
+      </c>
+      <c r="DS6">
+        <v>15177.738</v>
+      </c>
+      <c r="DT6">
+        <v>1277.613</v>
+      </c>
+      <c r="DU6">
+        <v>3834.899</v>
+      </c>
+      <c r="DV6">
+        <v>5759.641</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>ConstantExports of goods and services</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:126">
+      <c r="A7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7">
         <v>43073.8960242955</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>43035.6496654955</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>50959.0197463348</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>51747.3196345487</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>47068.5154217518</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>52123.4088008331</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>55484.8385361814</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>57921.981324361</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>52541.9939199786</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>58370.3136141841</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>63010.8714681811</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>63214.8520321151</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>63448.5797667267</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>70692.0146262865</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>75895.6438465063</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>79050.96821476521</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>75338.9468774999</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>81585.8516908508</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>92794.1587894386</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>94192.2755785483</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>89201.126122634</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>94642.7326592774</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>95802.87213196341</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>95998.353495526</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>96795.1525841112</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>96064.22222184821</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>102383.370146489</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>101029.874113395</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>95943.10876048121</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>97477.2125962968</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>100058.841631554</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>104739.770635257</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>97961.6664417646</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>109873.281535093</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>118550.954739407</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>124251.786575029</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>118886.672755985</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>128342.926889351</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>141254.633472229</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>134553.187052067</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>127371.578504926</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>121509.190903593</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>119113.279882238</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>119319.063650944</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>120151.997952846</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>126414.928961124</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>133649.208353825</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>133545.091566088</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>124731.911709927</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>129549.456723725</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>137930.245684929</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>147926.682211146</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>144792.154448544</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>155925.301316181</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>162936.648292786</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>163220.82587814</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>160096.165636342</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>168101.921582599</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>172635.882290652</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>177969.954892727</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>170837.669210049</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>176695.252139914</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>191271.728252635</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>185357.739235398</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>174350.11906796</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>181814.663594139</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>196367.081445563</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>198957.548828308</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>183788.58398908</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>198153.709778499</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>205886.625261377</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>175481.932660324</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BV7">
         <v>153578.989386681</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BW7">
         <v>161410.137439643</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BX7">
         <v>177183.042981344</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BY7">
         <v>188102.406481181</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="BZ7">
         <v>187024.959375271</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CA7">
         <v>186497.752758366</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CB7">
         <v>190930.311202103</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CC7">
         <v>191501.981027662</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CD7">
         <v>189889.66039002</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CE7">
         <v>196377.054262295</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CF7">
         <v>199070.254329375</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CG7">
         <v>202211.262426477</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CH7">
         <v>192620.971778804</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CI7">
         <v>197360.538091822</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CJ7">
         <v>189752.036172755</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CK7">
         <v>194096.726847008</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CL7">
         <v>185914.437806731</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CM7">
         <v>188190.530630718</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CN7">
         <v>197720.47835236</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CO7">
         <v>204010.963729165</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="CP7">
         <v>200323.693354306</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="CQ7">
         <v>204463.006350487</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="CR7">
         <v>202924.791060602</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="CS7">
         <v>207230.311765325</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="CT7">
         <v>196992.089</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="CU7">
         <v>195711.251</v>
       </c>
-      <c r="CV7" t="n">
+      <c r="CV7">
         <v>209490.57</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="CW7">
         <v>215176.337</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="CX7">
         <v>198933.937</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="CY7">
         <v>199813.09</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="CZ7">
         <v>209053.983</v>
       </c>
-      <c r="DA7" t="n">
+      <c r="DA7">
         <v>220354.265</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DB7">
         <v>218683.178</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DC7">
         <v>218490.947</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DD7">
         <v>231256.161</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="DE7">
         <v>231633.709</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="DF7">
         <v>223747.425</v>
       </c>
-      <c r="DG7" t="n">
+      <c r="DG7">
         <v>222887.662</v>
       </c>
-      <c r="DH7" t="n">
+      <c r="DH7">
         <v>232374.908</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="DI7">
         <v>238452.152</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DJ7">
         <v>224408.616</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DK7">
         <v>224133.18</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DL7">
         <v>228651.717</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DM7">
         <v>230683.509</v>
       </c>
-      <c r="DN7" t="n">
-        <v>208241.198</v>
-      </c>
-      <c r="DO7" t="n">
-        <v>175536.26</v>
-      </c>
-      <c r="DP7" t="n">
-        <v>217358.934</v>
-      </c>
-      <c r="DQ7" t="n">
-        <v>225949.187</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>233003.625</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>241115.898</v>
-      </c>
-      <c r="DT7" t="n">
-        <v>228422.316</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>255912.958</v>
+      <c r="DN7">
+        <v>208781.732</v>
+      </c>
+      <c r="DO7">
+        <v>175905.382</v>
+      </c>
+      <c r="DP7">
+        <v>219086.359</v>
+      </c>
+      <c r="DQ7">
+        <v>226383.3</v>
+      </c>
+      <c r="DR7">
+        <v>233202.763</v>
+      </c>
+      <c r="DS7">
+        <v>241127.289</v>
+      </c>
+      <c r="DT7">
+        <v>228185.864</v>
+      </c>
+      <c r="DU7">
+        <v>255817.762</v>
+      </c>
+      <c r="DV7">
+        <v>251892</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>ConstantImports of goods and services</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:126">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8">
         <v>39560.3668843368</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>40842.4240630969</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>43890.8711141292</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>44134.8181046261</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>43312.1647510246</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>43595.2857044102</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>46811.1124472854</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>45441.8041628181</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>44872.0009685651</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>50979.578877683</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>53330.0170276648</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>56919.7771060364</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>56275.1872513312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>62177.9921439192</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>68556.2265611676</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>71925.187912429</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>69179.4488017658</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>80107.20554879319</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>86303.81520182001</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>84706.5856485142</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>79849.01347483951</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>83278.51641417469</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>84825.8881864601</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>87991.857148315</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>83978.3059423485</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>94484.0522110608</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>90888.9502291627</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>86161.36441156569</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>76013.5257788477</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>70976.10947915311</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>70415.2094648304</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>71435.5132932336</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>69642.4138922494</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>77279.55723594929</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>82844.0414795262</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>89587.30607449749</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>87607.2399946869</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>98857.2592428666</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>109626.480031794</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>101100.616109195</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>94541.1514151062</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>91179.9935225432</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>87956.2066183381</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>90802.223304559</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>89897.1257441687</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>97074.759885868</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>101538.209176948</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>98517.1552636257</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>91397.1283105927</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>96489.8253547957</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>102456.600703953</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>114230.623802885</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>109254.248966566</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>120370.220718042</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>126692.609674158</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>127700.735475816</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>119819.827203755</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>130527.104301451</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>137920.032057237</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>139295.819739988</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>134242.715013115</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>141812.372841772</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>148699.282856035</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>145910.704387987</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>141520.66266247</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>147023.748307765</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>154312.665556811</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>161558.308043925</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>145744.744191507</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>158356.059845737</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>167367.622876607</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BU8">
         <v>147085.539684589</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="BV8">
         <v>111345.151968012</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="BW8">
         <v>127206.786329669</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="BX8">
         <v>144443.842601327</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BY8">
         <v>156807.701151513</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="BZ8">
         <v>142895.846895919</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CA8">
         <v>156580.8261204</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CB8">
         <v>161410.818787863</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CC8">
         <v>163562.477755417</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CD8">
         <v>157126.769440525</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CE8">
         <v>163250.968919816</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CF8">
         <v>167779.087045563</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CG8">
         <v>175697.40614158</v>
       </c>
-      <c r="CH8" t="n">
+      <c r="CH8">
         <v>166293.264833143</v>
       </c>
-      <c r="CI8" t="n">
+      <c r="CI8">
         <v>176076.355034373</v>
       </c>
-      <c r="CJ8" t="n">
+      <c r="CJ8">
         <v>170904.880172556</v>
       </c>
-      <c r="CK8" t="n">
+      <c r="CK8">
         <v>169911.477425348</v>
       </c>
-      <c r="CL8" t="n">
+      <c r="CL8">
         <v>162273.623329081</v>
       </c>
-      <c r="CM8" t="n">
+      <c r="CM8">
         <v>173612.11675412</v>
       </c>
-      <c r="CN8" t="n">
+      <c r="CN8">
         <v>177357.716121021</v>
       </c>
-      <c r="CO8" t="n">
+      <c r="CO8">
         <v>181718.839819435</v>
       </c>
-      <c r="CP8" t="n">
+      <c r="CP8">
         <v>174399.987898458</v>
       </c>
-      <c r="CQ8" t="n">
+      <c r="CQ8">
         <v>181312.058522087</v>
       </c>
-      <c r="CR8" t="n">
+      <c r="CR8">
         <v>181033.734476533</v>
       </c>
-      <c r="CS8" t="n">
+      <c r="CS8">
         <v>185938.660540876</v>
       </c>
-      <c r="CT8" t="n">
+      <c r="CT8">
         <v>174239.584</v>
       </c>
-      <c r="CU8" t="n">
+      <c r="CU8">
         <v>175303.483</v>
       </c>
-      <c r="CV8" t="n">
+      <c r="CV8">
         <v>186442.421</v>
       </c>
-      <c r="CW8" t="n">
+      <c r="CW8">
         <v>192792.755</v>
       </c>
-      <c r="CX8" t="n">
+      <c r="CX8">
         <v>178408.974</v>
       </c>
-      <c r="CY8" t="n">
+      <c r="CY8">
         <v>180167.829</v>
       </c>
-      <c r="CZ8" t="n">
+      <c r="CZ8">
         <v>183775.096</v>
       </c>
-      <c r="DA8" t="n">
+      <c r="DA8">
         <v>196878.1</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DB8">
         <v>201681.721</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DC8">
         <v>197548.721</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DD8">
         <v>206192.15</v>
       </c>
-      <c r="DE8" t="n">
+      <c r="DE8">
         <v>209148.248</v>
       </c>
-      <c r="DF8" t="n">
+      <c r="DF8">
         <v>197630.047</v>
       </c>
-      <c r="DG8" t="n">
+      <c r="DG8">
         <v>204802.862</v>
       </c>
-      <c r="DH8" t="n">
+      <c r="DH8">
         <v>211002.834</v>
       </c>
-      <c r="DI8" t="n">
+      <c r="DI8">
         <v>213258.071</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DJ8">
         <v>194490.7</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="DK8">
         <v>200172.726</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="DL8">
         <v>204005.311</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="DM8">
         <v>208282.818</v>
       </c>
-      <c r="DN8" t="n">
-        <v>189327.801</v>
-      </c>
-      <c r="DO8" t="n">
-        <v>160648.563</v>
-      </c>
-      <c r="DP8" t="n">
-        <v>187985.533</v>
-      </c>
-      <c r="DQ8" t="n">
-        <v>201317.646</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>213931.931</v>
-      </c>
-      <c r="DS8" t="n">
-        <v>221127.036</v>
-      </c>
-      <c r="DT8" t="n">
-        <v>210054.839</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>230642.648</v>
+      <c r="DN8">
+        <v>190703.233</v>
+      </c>
+      <c r="DO8">
+        <v>163060.606</v>
+      </c>
+      <c r="DP8">
+        <v>188050.448</v>
+      </c>
+      <c r="DQ8">
+        <v>201272.927</v>
+      </c>
+      <c r="DR8">
+        <v>213935.984</v>
+      </c>
+      <c r="DS8">
+        <v>220890.251</v>
+      </c>
+      <c r="DT8">
+        <v>209527.763</v>
+      </c>
+      <c r="DU8">
+        <v>230507.913</v>
+      </c>
+      <c r="DV8">
+        <v>237730.705</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>CurrentFinal consumption expenditureTotal</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:126">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9">
         <v>23620.2736</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>21812.87416</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>24499.66833</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>25905.80822</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>25489.0528</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>23835.44332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>25951.40223</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>27408.07018</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>25976.24446</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>27044.76318</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>28532.29839</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>31395.51881</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>30426.77827</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>29117.01553</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>31845.58635</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>35760.31978</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>34577.25855</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>34239.51653</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>35469.62903</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>40165.07626</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>36739.76811</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>35969.37372</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>39846.54052</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>43627.25748</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>40246.97244</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>40582.55578</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>42738.99819</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>46798.21767</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>38600.52421</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>38290.58819</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>39003.13357</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>40758.53978</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>38992.72715</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>40097.47396</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>43733.95509</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>47407.4404</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>45931</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>45538</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>48031</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>52670</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>48527</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>48007</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>51240</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>57292</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>52028</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>51756</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>56079</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>62278</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>57436</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>55710</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>59864</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>67969</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>63579</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>63056</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>65975</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>75597</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>70986</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>69625</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>75281</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>86663</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>77893</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>77443</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>82621</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>93274</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>84932</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>87684</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>97650</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>107111</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>99480</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>101917</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BT9">
         <v>112159</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BU9">
         <v>119239</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="BV9">
         <v>102255</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="BW9">
         <v>103945</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="BX9">
         <v>114038</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="BY9">
         <v>120948</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="BZ9">
         <v>114938</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CA9">
         <v>119709</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CB9">
         <v>126911</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CC9">
         <v>137033</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CD9">
         <v>127340</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CE9">
         <v>131209</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CF9">
         <v>143365</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CG9">
         <v>156418</v>
       </c>
-      <c r="CH9" t="n">
+      <c r="CH9">
         <v>142256</v>
       </c>
-      <c r="CI9" t="n">
+      <c r="CI9">
         <v>147741</v>
       </c>
-      <c r="CJ9" t="n">
+      <c r="CJ9">
         <v>158172</v>
       </c>
-      <c r="CK9" t="n">
+      <c r="CK9">
         <v>168510</v>
       </c>
-      <c r="CL9" t="n">
+      <c r="CL9">
         <v>151312</v>
       </c>
-      <c r="CM9" t="n">
+      <c r="CM9">
         <v>160684</v>
       </c>
-      <c r="CN9" t="n">
+      <c r="CN9">
         <v>172664</v>
       </c>
-      <c r="CO9" t="n">
+      <c r="CO9">
         <v>182796</v>
       </c>
-      <c r="CP9" t="n">
+      <c r="CP9">
         <v>167630</v>
       </c>
-      <c r="CQ9" t="n">
+      <c r="CQ9">
         <v>173241</v>
       </c>
-      <c r="CR9" t="n">
+      <c r="CR9">
         <v>188096</v>
       </c>
-      <c r="CS9" t="n">
+      <c r="CS9">
         <v>198494</v>
       </c>
-      <c r="CT9" t="n">
+      <c r="CT9">
         <v>184830.494</v>
       </c>
-      <c r="CU9" t="n">
+      <c r="CU9">
         <v>189279.981</v>
       </c>
-      <c r="CV9" t="n">
+      <c r="CV9">
         <v>201919.615</v>
       </c>
-      <c r="CW9" t="n">
+      <c r="CW9">
         <v>213090.467</v>
       </c>
-      <c r="CX9" t="n">
+      <c r="CX9">
         <v>198406.101</v>
       </c>
-      <c r="CY9" t="n">
+      <c r="CY9">
         <v>203550.066</v>
       </c>
-      <c r="CZ9" t="n">
+      <c r="CZ9">
         <v>215599.857</v>
       </c>
-      <c r="DA9" t="n">
+      <c r="DA9">
         <v>224147.953</v>
       </c>
-      <c r="DB9" t="n">
+      <c r="DB9">
         <v>219633.781</v>
       </c>
-      <c r="DC9" t="n">
+      <c r="DC9">
         <v>223611.735</v>
       </c>
-      <c r="DD9" t="n">
+      <c r="DD9">
         <v>237232.321</v>
       </c>
-      <c r="DE9" t="n">
+      <c r="DE9">
         <v>246988.773</v>
       </c>
-      <c r="DF9" t="n">
+      <c r="DF9">
         <v>235889.497</v>
       </c>
-      <c r="DG9" t="n">
+      <c r="DG9">
         <v>242606.233</v>
       </c>
-      <c r="DH9" t="n">
+      <c r="DH9">
         <v>258870.603</v>
       </c>
-      <c r="DI9" t="n">
+      <c r="DI9">
         <v>267310.27</v>
       </c>
-      <c r="DJ9" t="n">
-        <v>254852.722</v>
-      </c>
-      <c r="DK9" t="n">
-        <v>261095.988</v>
-      </c>
-      <c r="DL9" t="n">
-        <v>277185.25</v>
-      </c>
-      <c r="DM9" t="n">
-        <v>287733.47</v>
-      </c>
-      <c r="DN9" t="n">
-        <v>273246.041</v>
-      </c>
-      <c r="DO9" t="n">
-        <v>219922.46</v>
-      </c>
-      <c r="DP9" t="n">
-        <v>273994.294</v>
-      </c>
-      <c r="DQ9" t="n">
-        <v>278638.901</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>272923.606</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>249573.677</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>273062.365</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>295592.214</v>
+      <c r="DJ9">
+        <v>254700.621</v>
+      </c>
+      <c r="DK9">
+        <v>261046.747</v>
+      </c>
+      <c r="DL9">
+        <v>277061.908</v>
+      </c>
+      <c r="DM9">
+        <v>287659.457</v>
+      </c>
+      <c r="DN9">
+        <v>273542.584</v>
+      </c>
+      <c r="DO9">
+        <v>220148.911</v>
+      </c>
+      <c r="DP9">
+        <v>274221.11</v>
+      </c>
+      <c r="DQ9">
+        <v>280429.891</v>
+      </c>
+      <c r="DR9">
+        <v>273179.64</v>
+      </c>
+      <c r="DS9">
+        <v>249430.361</v>
+      </c>
+      <c r="DT9">
+        <v>272867.203</v>
+      </c>
+      <c r="DU9">
+        <v>295875.573</v>
+      </c>
+      <c r="DV9">
+        <v>294101.826</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>CurrentFinal consumption expenditurePrivate sector</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:126">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10">
         <v>20093.00786</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>17624.2461</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>19297.57825</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>19489.65334</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>21936.71171</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>18995.90099</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>20855.88238</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>20412.04785</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>22366.43903</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>20925.33326</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>22463.01916</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>24469.4985</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>26149.34168</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>23604.61801</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>25670.7817</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>26677.81947</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>30460.72212</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>27363.64692</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>27935.53151</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>29932.24432</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>31690.21974</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>29433.06612</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>31452.5675</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>34165.49252</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>34802.48732</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>33094.42973</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>35059.67261</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>35709.68945</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>33374.40359</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>30996.7961</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>31164.99745</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>32207.84583</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>32879.56606</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>32300.0852799999</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>33719.48765</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>36807.88149</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>39192</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>37196</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>38813</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>40740</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>40817</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>38562</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>40411</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>42828</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>43224</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>40876</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>42492</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>45893</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>46795</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>43943</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10">
         <v>46108</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10">
         <v>49828</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10">
         <v>51269</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC10">
         <v>49695</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD10">
         <v>51574</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>56034</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>58683.3144481734</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>56297.2555194782</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>60329.9380888554</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>64877.4805691043</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>65243.6073332396</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>63286.5789281513</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>65941.24751948479</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM10">
         <v>70112.27990900179</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN10">
         <v>71084.10519324589</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO10">
         <v>71788.77664218641</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP10">
         <v>77732.4288495901</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ10">
         <v>79812.6010589709</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR10">
         <v>81866.3148265842</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS10">
         <v>82444.2246059538</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BT10">
         <v>91237.9520027836</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BU10">
         <v>88666.2130490139</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="BV10">
         <v>84027</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="BW10">
         <v>83916</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="BX10">
         <v>90436</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="BY10">
         <v>89789</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="BZ10">
         <v>93283</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CA10">
         <v>95937</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CB10">
         <v>103460</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CC10">
         <v>102565</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CD10">
         <v>103145</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CE10">
         <v>105843</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="CF10">
         <v>114707</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CG10">
         <v>113645</v>
       </c>
-      <c r="CH10" t="n">
+      <c r="CH10">
         <v>114086</v>
       </c>
-      <c r="CI10" t="n">
+      <c r="CI10">
         <v>117998</v>
       </c>
-      <c r="CJ10" t="n">
+      <c r="CJ10">
         <v>127050</v>
       </c>
-      <c r="CK10" t="n">
+      <c r="CK10">
         <v>123103</v>
       </c>
-      <c r="CL10" t="n">
+      <c r="CL10">
         <v>123592</v>
       </c>
-      <c r="CM10" t="n">
+      <c r="CM10">
         <v>128328</v>
       </c>
-      <c r="CN10" t="n">
+      <c r="CN10">
         <v>140069</v>
       </c>
-      <c r="CO10" t="n">
+      <c r="CO10">
         <v>135760</v>
       </c>
-      <c r="CP10" t="n">
+      <c r="CP10">
         <v>136241</v>
       </c>
-      <c r="CQ10" t="n">
+      <c r="CQ10">
         <v>140561</v>
       </c>
-      <c r="CR10" t="n">
+      <c r="CR10">
         <v>153445</v>
       </c>
-      <c r="CS10" t="n">
+      <c r="CS10">
         <v>149738</v>
       </c>
-      <c r="CT10" t="n">
+      <c r="CT10">
         <v>152097.448</v>
       </c>
-      <c r="CU10" t="n">
+      <c r="CU10">
         <v>154316.684</v>
       </c>
-      <c r="CV10" t="n">
+      <c r="CV10">
         <v>165970.299</v>
       </c>
-      <c r="CW10" t="n">
+      <c r="CW10">
         <v>162715.003</v>
       </c>
-      <c r="CX10" t="n">
+      <c r="CX10">
         <v>164480.204</v>
       </c>
-      <c r="CY10" t="n">
+      <c r="CY10">
         <v>166337.239</v>
       </c>
-      <c r="CZ10" t="n">
+      <c r="CZ10">
         <v>178504.909</v>
       </c>
-      <c r="DA10" t="n">
+      <c r="DA10">
         <v>175358.387</v>
       </c>
-      <c r="DB10" t="n">
+      <c r="DB10">
         <v>182570.744</v>
       </c>
-      <c r="DC10" t="n">
+      <c r="DC10">
         <v>184594.268</v>
       </c>
-      <c r="DD10" t="n">
+      <c r="DD10">
         <v>198415.241</v>
       </c>
-      <c r="DE10" t="n">
+      <c r="DE10">
         <v>194566.22</v>
       </c>
-      <c r="DF10" t="n">
+      <c r="DF10">
         <v>198560.996</v>
       </c>
-      <c r="DG10" t="n">
+      <c r="DG10">
         <v>202223.726</v>
       </c>
-      <c r="DH10" t="n">
+      <c r="DH10">
         <v>217974.727</v>
       </c>
-      <c r="DI10" t="n">
+      <c r="DI10">
         <v>212628.341</v>
       </c>
-      <c r="DJ10" t="n">
-        <v>215309.019</v>
-      </c>
-      <c r="DK10" t="n">
-        <v>220631.356</v>
-      </c>
-      <c r="DL10" t="n">
-        <v>235890.1</v>
-      </c>
-      <c r="DM10" t="n">
-        <v>232327.976</v>
-      </c>
-      <c r="DN10" t="n">
-        <v>231613.685</v>
-      </c>
-      <c r="DO10" t="n">
-        <v>178573.113</v>
-      </c>
-      <c r="DP10" t="n">
-        <v>229777.604</v>
-      </c>
-      <c r="DQ10" t="n">
-        <v>221793.85</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>228719.293</v>
-      </c>
-      <c r="DS10" t="n">
-        <v>204110.453</v>
-      </c>
-      <c r="DT10" t="n">
-        <v>224997.18</v>
-      </c>
-      <c r="DU10" t="n">
-        <v>235799.643</v>
+      <c r="DJ10">
+        <v>215316.428</v>
+      </c>
+      <c r="DK10">
+        <v>220640.364</v>
+      </c>
+      <c r="DL10">
+        <v>235895.194</v>
+      </c>
+      <c r="DM10">
+        <v>232336.901</v>
+      </c>
+      <c r="DN10">
+        <v>231950.963</v>
+      </c>
+      <c r="DO10">
+        <v>178814.506</v>
+      </c>
+      <c r="DP10">
+        <v>230057.063</v>
+      </c>
+      <c r="DQ10">
+        <v>222132.097</v>
+      </c>
+      <c r="DR10">
+        <v>229048.522</v>
+      </c>
+      <c r="DS10">
+        <v>204395.58</v>
+      </c>
+      <c r="DT10">
+        <v>225308.899</v>
+      </c>
+      <c r="DU10">
+        <v>236128.199</v>
+      </c>
+      <c r="DV10">
+        <v>246665.616</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>CurrentFinal consumption expenditurePublic sector</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:126">
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11">
         <v>3527.265736</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4188.628062</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>5202.090078</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>6416.154884</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>3552.341085</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>4839.542326</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>5095.519845</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>6996.022326</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>3609.805426</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>6119.429922</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>6069.279225</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>6926.02031</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>4277.436589</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>5512.397519</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>6174.804651</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>9082.500309999999</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>4116.536434</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>6875.869612</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>7534.097519</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>10232.83194</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>5049.548372</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>6536.307597</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>8393.973023</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>9461.764961000001</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>5444.485116</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>7488.126047</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>7679.325581</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>11088.52822</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>5226.12062</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>7293.792093</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>7838.136124</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>8550.693953</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>6113.161085</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>7797.388682</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>10014.46744</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>10599.55891</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>6739</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>8342</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>9218</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>11930</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>7710</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>9445</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11">
         <v>10829</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11">
         <v>14464</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>8804</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11">
         <v>10880</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11">
         <v>13587</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11">
         <v>16385</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11">
         <v>10641</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>11767</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11">
         <v>13756</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11">
         <v>18141</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11">
         <v>12310</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC11">
         <v>13361</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD11">
         <v>14401</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11">
         <v>19563</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF11">
         <v>12303.3678242149</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG11">
         <v>13327.8642289822</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH11">
         <v>14950.5231417976</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI11">
         <v>21786.4506207557</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ11">
         <v>12649.3243822475</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK11">
         <v>14156.3578668628</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL11">
         <v>16679.6964233895</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BM11">
         <v>23161.9424756925</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BN11">
         <v>13848.2665870732</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BO11">
         <v>15894.8291539461</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BP11">
         <v>19918.3776368131</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BQ11">
         <v>27297.9530949695</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BR11">
         <v>17613.7640035603</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BS11">
         <v>19472.7618337265</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BT11">
         <v>20921.116989518</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="BU11">
         <v>30573.109230152</v>
       </c>
-      <c r="BV11" t="n">
+      <c r="BV11">
         <v>18228</v>
       </c>
-      <c r="BW11" t="n">
+      <c r="BW11">
         <v>20029</v>
       </c>
-      <c r="BX11" t="n">
+      <c r="BX11">
         <v>23602</v>
       </c>
-      <c r="BY11" t="n">
+      <c r="BY11">
         <v>31159</v>
       </c>
-      <c r="BZ11" t="n">
+      <c r="BZ11">
         <v>21655</v>
       </c>
-      <c r="CA11" t="n">
+      <c r="CA11">
         <v>23772</v>
       </c>
-      <c r="CB11" t="n">
+      <c r="CB11">
         <v>23451</v>
       </c>
-      <c r="CC11" t="n">
+      <c r="CC11">
         <v>34468</v>
       </c>
-      <c r="CD11" t="n">
+      <c r="CD11">
         <v>24195</v>
       </c>
-      <c r="CE11" t="n">
+      <c r="CE11">
         <v>25366</v>
       </c>
-      <c r="CF11" t="n">
+      <c r="CF11">
         <v>28658</v>
       </c>
-      <c r="CG11" t="n">
+      <c r="CG11">
         <v>42773</v>
       </c>
-      <c r="CH11" t="n">
+      <c r="CH11">
         <v>28170</v>
       </c>
-      <c r="CI11" t="n">
+      <c r="CI11">
         <v>29743</v>
       </c>
-      <c r="CJ11" t="n">
+      <c r="CJ11">
         <v>31122</v>
       </c>
-      <c r="CK11" t="n">
+      <c r="CK11">
         <v>45407</v>
       </c>
-      <c r="CL11" t="n">
+      <c r="CL11">
         <v>27720</v>
       </c>
-      <c r="CM11" t="n">
+      <c r="CM11">
         <v>32356</v>
       </c>
-      <c r="CN11" t="n">
+      <c r="CN11">
         <v>32595</v>
       </c>
-      <c r="CO11" t="n">
+      <c r="CO11">
         <v>47036</v>
       </c>
-      <c r="CP11" t="n">
+      <c r="CP11">
         <v>31388</v>
       </c>
-      <c r="CQ11" t="n">
+      <c r="CQ11">
         <v>32680</v>
       </c>
-      <c r="CR11" t="n">
+      <c r="CR11">
         <v>34651</v>
       </c>
-      <c r="CS11" t="n">
+      <c r="CS11">
         <v>48756</v>
       </c>
-      <c r="CT11" t="n">
+      <c r="CT11">
         <v>32733.046</v>
       </c>
-      <c r="CU11" t="n">
+      <c r="CU11">
         <v>34963.297</v>
       </c>
-      <c r="CV11" t="n">
+      <c r="CV11">
         <v>35949.316</v>
       </c>
-      <c r="CW11" t="n">
+      <c r="CW11">
         <v>50375.464</v>
       </c>
-      <c r="CX11" t="n">
+      <c r="CX11">
         <v>33925.897</v>
       </c>
-      <c r="CY11" t="n">
+      <c r="CY11">
         <v>37212.827</v>
       </c>
-      <c r="CZ11" t="n">
+      <c r="CZ11">
         <v>37094.948</v>
       </c>
-      <c r="DA11" t="n">
+      <c r="DA11">
         <v>48789.566</v>
       </c>
-      <c r="DB11" t="n">
+      <c r="DB11">
         <v>37063.037</v>
       </c>
-      <c r="DC11" t="n">
+      <c r="DC11">
         <v>39017.467</v>
       </c>
-      <c r="DD11" t="n">
+      <c r="DD11">
         <v>38817.08</v>
       </c>
-      <c r="DE11" t="n">
+      <c r="DE11">
         <v>52422.553</v>
       </c>
-      <c r="DF11" t="n">
+      <c r="DF11">
         <v>37328.501</v>
       </c>
-      <c r="DG11" t="n">
+      <c r="DG11">
         <v>40382.507</v>
       </c>
-      <c r="DH11" t="n">
+      <c r="DH11">
         <v>40895.876</v>
       </c>
-      <c r="DI11" t="n">
+      <c r="DI11">
         <v>54681.929</v>
       </c>
-      <c r="DJ11" t="n">
-        <v>39544.703</v>
-      </c>
-      <c r="DK11" t="n">
-        <v>40464.632</v>
-      </c>
-      <c r="DL11" t="n">
-        <v>41295.15</v>
-      </c>
-      <c r="DM11" t="n">
-        <v>55405.494</v>
-      </c>
-      <c r="DN11" t="n">
-        <v>41632.356</v>
-      </c>
-      <c r="DO11" t="n">
-        <v>41349.347</v>
-      </c>
-      <c r="DP11" t="n">
-        <v>44216.69</v>
-      </c>
-      <c r="DQ11" t="n">
-        <v>56845.051</v>
-      </c>
-      <c r="DR11" t="n">
-        <v>44204.313</v>
-      </c>
-      <c r="DS11" t="n">
-        <v>45463.224</v>
-      </c>
-      <c r="DT11" t="n">
-        <v>48065.185</v>
-      </c>
-      <c r="DU11" t="n">
-        <v>59792.571</v>
+      <c r="DJ11">
+        <v>39385.193</v>
+      </c>
+      <c r="DK11">
+        <v>40406.383</v>
+      </c>
+      <c r="DL11">
+        <v>41166.714</v>
+      </c>
+      <c r="DM11">
+        <v>55322.556</v>
+      </c>
+      <c r="DN11">
+        <v>41591.621</v>
+      </c>
+      <c r="DO11">
+        <v>41334.405</v>
+      </c>
+      <c r="DP11">
+        <v>44164.047</v>
+      </c>
+      <c r="DQ11">
+        <v>58297.794</v>
+      </c>
+      <c r="DR11">
+        <v>44131.118</v>
+      </c>
+      <c r="DS11">
+        <v>45034.781</v>
+      </c>
+      <c r="DT11">
+        <v>47558.304</v>
+      </c>
+      <c r="DU11">
+        <v>59747.374</v>
+      </c>
+      <c r="DV11">
+        <v>47436.21</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>CurrentGross fixed capital formationTotal</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:126">
+      <c r="A12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12">
         <v>11509.64105</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>11551.55376</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>13256.68577</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>13901.73271</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>13455.00448</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>12779.2897</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>15420.81315</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>14764.52133</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>14834.0351</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>17125.94515</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>17596.1853899999</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>18869.92309</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>17924.3313</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>18136.96167</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>22219.87368</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>22132.9814699999</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>24270.53004</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>26616.61994</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>19961.69826</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12">
         <v>28276.77245</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12">
         <v>25341.85998</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12">
         <v>27226.91</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12">
         <v>27628.65873</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12">
         <v>30027.90622</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12">
         <v>26716.80156</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12">
         <v>32561.06996</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12">
         <v>33598.6652699999</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12">
         <v>31321.06688</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12">
         <v>22726.91534</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12">
         <v>20065.96892</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12">
         <v>16856.06814</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12">
         <v>18024.51292</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12">
         <v>15527.12833</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12">
         <v>16402.18408</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12">
         <v>16735.4413</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12">
         <v>18641.9588</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12">
         <v>20297</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12">
         <v>23673</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12">
         <v>24205</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12">
         <v>21965</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12">
         <v>22370</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12">
         <v>23910</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12">
         <v>21896</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12">
         <v>20404</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12">
         <v>20656</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12">
         <v>23664</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12">
         <v>22785</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AW12">
         <v>22890</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AX12">
         <v>21819</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY12">
         <v>24098</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AZ12">
         <v>23891</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA12">
         <v>24056</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BB12">
         <v>23217</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BC12">
         <v>25540</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BD12">
         <v>25312</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BE12">
         <v>25267</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BF12">
         <v>27211.8831851661</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BG12">
         <v>30950.1618657172</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BH12">
         <v>31785.7551555729</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BI12">
         <v>31289.2792656293</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BJ12">
         <v>31107.56464079</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BK12">
         <v>33532.9144579151</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BL12">
         <v>32544.8189187798</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BM12">
         <v>33838.3763203309</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BN12">
         <v>34502.6699595173</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BO12">
         <v>37269.6649891253</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BP12">
         <v>38199.6944553008</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BQ12">
         <v>39091.9903755375</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BR12">
         <v>38209.8700121567</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BS12">
         <v>41296.6134736322</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="BT12">
         <v>40828.9116296608</v>
       </c>
-      <c r="BU12" t="n">
+      <c r="BU12">
         <v>38045.9100359793</v>
       </c>
-      <c r="BV12" t="n">
+      <c r="BV12">
         <v>36103</v>
       </c>
-      <c r="BW12" t="n">
+      <c r="BW12">
         <v>39546</v>
       </c>
-      <c r="BX12" t="n">
+      <c r="BX12">
         <v>39080</v>
       </c>
-      <c r="BY12" t="n">
+      <c r="BY12">
         <v>41931</v>
       </c>
-      <c r="BZ12" t="n">
+      <c r="BZ12">
         <v>41481</v>
       </c>
-      <c r="CA12" t="n">
+      <c r="CA12">
         <v>47536</v>
       </c>
-      <c r="CB12" t="n">
+      <c r="CB12">
         <v>46356</v>
       </c>
-      <c r="CC12" t="n">
+      <c r="CC12">
         <v>48918</v>
       </c>
-      <c r="CD12" t="n">
+      <c r="CD12">
         <v>47086</v>
       </c>
-      <c r="CE12" t="n">
+      <c r="CE12">
         <v>50717</v>
       </c>
-      <c r="CF12" t="n">
+      <c r="CF12">
         <v>50849</v>
       </c>
-      <c r="CG12" t="n">
+      <c r="CG12">
         <v>53599</v>
       </c>
-      <c r="CH12" t="n">
+      <c r="CH12">
         <v>55289</v>
       </c>
-      <c r="CI12" t="n">
+      <c r="CI12">
         <v>65202</v>
       </c>
-      <c r="CJ12" t="n">
+      <c r="CJ12">
         <v>63019</v>
       </c>
-      <c r="CK12" t="n">
+      <c r="CK12">
         <v>62834</v>
       </c>
-      <c r="CL12" t="n">
+      <c r="CL12">
         <v>62854</v>
       </c>
-      <c r="CM12" t="n">
+      <c r="CM12">
         <v>69769</v>
       </c>
-      <c r="CN12" t="n">
+      <c r="CN12">
         <v>69362</v>
       </c>
-      <c r="CO12" t="n">
+      <c r="CO12">
         <v>67714</v>
       </c>
-      <c r="CP12" t="n">
+      <c r="CP12">
         <v>68278</v>
       </c>
-      <c r="CQ12" t="n">
+      <c r="CQ12">
         <v>75806</v>
       </c>
-      <c r="CR12" t="n">
+      <c r="CR12">
         <v>71380</v>
       </c>
-      <c r="CS12" t="n">
+      <c r="CS12">
         <v>71929</v>
       </c>
-      <c r="CT12" t="n">
+      <c r="CT12">
         <v>75576.072</v>
       </c>
-      <c r="CU12" t="n">
+      <c r="CU12">
         <v>77718.531</v>
       </c>
-      <c r="CV12" t="n">
+      <c r="CV12">
         <v>75995.38400000001</v>
       </c>
-      <c r="CW12" t="n">
+      <c r="CW12">
         <v>75133.42600000001</v>
       </c>
-      <c r="CX12" t="n">
+      <c r="CX12">
         <v>77251.719</v>
       </c>
-      <c r="CY12" t="n">
+      <c r="CY12">
         <v>84200.55499999999</v>
       </c>
-      <c r="CZ12" t="n">
+      <c r="CZ12">
         <v>79108.236</v>
       </c>
-      <c r="DA12" t="n">
+      <c r="DA12">
         <v>78334.696</v>
       </c>
-      <c r="DB12" t="n">
+      <c r="DB12">
         <v>86106.00900000001</v>
       </c>
-      <c r="DC12" t="n">
+      <c r="DC12">
         <v>89172.424</v>
       </c>
-      <c r="DD12" t="n">
+      <c r="DD12">
         <v>85880.318</v>
       </c>
-      <c r="DE12" t="n">
+      <c r="DE12">
         <v>82782.78599999999</v>
       </c>
-      <c r="DF12" t="n">
+      <c r="DF12">
         <v>86712.59</v>
       </c>
-      <c r="DG12" t="n">
+      <c r="DG12">
         <v>91122.167</v>
       </c>
-      <c r="DH12" t="n">
+      <c r="DH12">
         <v>88493.67</v>
       </c>
-      <c r="DI12" t="n">
+      <c r="DI12">
         <v>84036.13099999999</v>
       </c>
-      <c r="DJ12" t="n">
-        <v>84381.966</v>
-      </c>
-      <c r="DK12" t="n">
-        <v>91782.618</v>
-      </c>
-      <c r="DL12" t="n">
-        <v>86548.913</v>
-      </c>
-      <c r="DM12" t="n">
-        <v>84308.151</v>
-      </c>
-      <c r="DN12" t="n">
-        <v>80697.557</v>
-      </c>
-      <c r="DO12" t="n">
-        <v>64477.328</v>
-      </c>
-      <c r="DP12" t="n">
-        <v>77324.149</v>
-      </c>
-      <c r="DQ12" t="n">
-        <v>74059.36199999999</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>78425.802</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>76490.09</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>69229.35400000001</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>73770.439</v>
+      <c r="DJ12">
+        <v>84364.372</v>
+      </c>
+      <c r="DK12">
+        <v>91775.769</v>
+      </c>
+      <c r="DL12">
+        <v>86538.329</v>
+      </c>
+      <c r="DM12">
+        <v>84294.958</v>
+      </c>
+      <c r="DN12">
+        <v>80739.803</v>
+      </c>
+      <c r="DO12">
+        <v>64493.733</v>
+      </c>
+      <c r="DP12">
+        <v>77345.474</v>
+      </c>
+      <c r="DQ12">
+        <v>74087.478</v>
+      </c>
+      <c r="DR12">
+        <v>78513.674</v>
+      </c>
+      <c r="DS12">
+        <v>76528.23299999999</v>
+      </c>
+      <c r="DT12">
+        <v>69274.567</v>
+      </c>
+      <c r="DU12">
+        <v>73829.132</v>
+      </c>
+      <c r="DV12">
+        <v>80585.576</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>CurrentChanges in inventories and valuables</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:126">
+      <c r="A13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13">
         <v>-1549.699346</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>-12688.1634</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1263.742919</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>4040.287582</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-1420.557734</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-3934.206972</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>2794.993464</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>11350.62527</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>-2592.056645</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>-830.1960784</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>-2887.237473</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>3841.962963</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>3620.577342</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>-9653.335512</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>-5087.257081</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>2490.588235</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>14422.35076</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>-6198.797386</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>-33632.16558</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13">
         <v>24859.76035</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13">
         <v>-1881.777778</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13">
         <v>-3542.169935</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13">
         <v>2144.673203</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13">
         <v>15178.75163</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13">
         <v>2481.363834</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13">
         <v>-8836.976035</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13">
         <v>13361.54466</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13">
         <v>-5170.276688</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13">
         <v>-11562.78649</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13">
         <v>-4828.973856</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13">
         <v>-6660.017429</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13">
         <v>25016.57516</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13">
         <v>-2361.446623</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13">
         <v>-9962.352940999999</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13">
         <v>1526.638344</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13">
         <v>3984.941176</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13">
         <v>-2117</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13">
         <v>1995</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13">
         <v>4427</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13">
         <v>1311</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13">
         <v>-1808</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13">
         <v>273</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13">
         <v>436</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13">
         <v>-1458</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13">
         <v>-164</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13">
         <v>4043</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13">
         <v>5303</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AW13">
         <v>-4228</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX13">
         <v>-1509</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY13">
         <v>2782</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="AZ13">
         <v>2384</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BA13">
         <v>-2195</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BB13">
         <v>-278</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BC13">
         <v>4961</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BD13">
         <v>6691</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BE13">
         <v>-1443</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BF13">
         <v>-2643.05295118</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BG13">
         <v>2655.91414216122</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BH13">
         <v>5938.85737334494</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BI13">
         <v>-5447.17433749861</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BJ13">
         <v>2226.63845251252</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BK13">
         <v>8506.861623679601</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BL13">
         <v>2988.44420090203</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BM13">
         <v>-9254.84717991393</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BN13">
         <v>4445.89236790988</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BO13">
         <v>3530.65037399838</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BP13">
         <v>-1277.56729988106</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="BQ13">
         <v>-10.4361317831188</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="BR13">
         <v>10093.8241549915</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BS13">
         <v>1542.3149704396</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="BT13">
         <v>2469.79706087927</v>
       </c>
-      <c r="BU13" t="n">
+      <c r="BU13">
         <v>-7269.07450851397</v>
       </c>
-      <c r="BV13" t="n">
+      <c r="BV13">
         <v>-9214</v>
       </c>
-      <c r="BW13" t="n">
+      <c r="BW13">
         <v>-8459</v>
       </c>
-      <c r="BX13" t="n">
+      <c r="BX13">
         <v>-5973</v>
       </c>
-      <c r="BY13" t="n">
+      <c r="BY13">
         <v>-5872</v>
       </c>
-      <c r="BZ13" t="n">
+      <c r="BZ13">
         <v>-3233</v>
       </c>
-      <c r="CA13" t="n">
+      <c r="CA13">
         <v>3575</v>
       </c>
-      <c r="CB13" t="n">
+      <c r="CB13">
         <v>6586</v>
       </c>
-      <c r="CC13" t="n">
+      <c r="CC13">
         <v>885</v>
       </c>
-      <c r="CD13" t="n">
+      <c r="CD13">
         <v>8164</v>
       </c>
-      <c r="CE13" t="n">
+      <c r="CE13">
         <v>6158</v>
       </c>
-      <c r="CF13" t="n">
+      <c r="CF13">
         <v>683</v>
       </c>
-      <c r="CG13" t="n">
+      <c r="CG13">
         <v>-5840</v>
       </c>
-      <c r="CH13" t="n">
+      <c r="CH13">
         <v>7805</v>
       </c>
-      <c r="CI13" t="n">
+      <c r="CI13">
         <v>2477</v>
       </c>
-      <c r="CJ13" t="n">
+      <c r="CJ13">
         <v>2884</v>
       </c>
-      <c r="CK13" t="n">
+      <c r="CK13">
         <v>-9426</v>
       </c>
-      <c r="CL13" t="n">
+      <c r="CL13">
         <v>3065</v>
       </c>
-      <c r="CM13" t="n">
+      <c r="CM13">
         <v>942</v>
       </c>
-      <c r="CN13" t="n">
+      <c r="CN13">
         <v>-4724</v>
       </c>
-      <c r="CO13" t="n">
+      <c r="CO13">
         <v>-4783</v>
       </c>
-      <c r="CP13" t="n">
+      <c r="CP13">
         <v>-992</v>
       </c>
-      <c r="CQ13" t="n">
+      <c r="CQ13">
         <v>-2529</v>
       </c>
-      <c r="CR13" t="n">
+      <c r="CR13">
         <v>-2588</v>
       </c>
-      <c r="CS13" t="n">
+      <c r="CS13">
         <v>-4921</v>
       </c>
-      <c r="CT13" t="n">
+      <c r="CT13">
         <v>-2430.532</v>
       </c>
-      <c r="CU13" t="n">
+      <c r="CU13">
         <v>2776.311</v>
       </c>
-      <c r="CV13" t="n">
+      <c r="CV13">
         <v>-2080.176</v>
       </c>
-      <c r="CW13" t="n">
+      <c r="CW13">
         <v>-3460.389</v>
       </c>
-      <c r="CX13" t="n">
+      <c r="CX13">
         <v>1663.9</v>
       </c>
-      <c r="CY13" t="n">
+      <c r="CY13">
         <v>-299.559</v>
       </c>
-      <c r="CZ13" t="n">
+      <c r="CZ13">
         <v>-965.3200000000001</v>
       </c>
-      <c r="DA13" t="n">
+      <c r="DA13">
         <v>5571.087</v>
       </c>
-      <c r="DB13" t="n">
-        <v>28976.077</v>
-      </c>
-      <c r="DC13" t="n">
-        <v>26633.313</v>
-      </c>
-      <c r="DD13" t="n">
-        <v>29528.599</v>
-      </c>
-      <c r="DE13" t="n">
-        <v>38622.396</v>
-      </c>
-      <c r="DF13" t="n">
+      <c r="DB13">
+        <v>3661.471</v>
+      </c>
+      <c r="DC13">
+        <v>-742.255</v>
+      </c>
+      <c r="DD13">
+        <v>-2050.509</v>
+      </c>
+      <c r="DE13">
+        <v>5778.463</v>
+      </c>
+      <c r="DF13">
         <v>-3741.844</v>
       </c>
-      <c r="DG13" t="n">
+      <c r="DG13">
         <v>1088.463</v>
       </c>
-      <c r="DH13" t="n">
+      <c r="DH13">
         <v>-1466.697</v>
       </c>
-      <c r="DI13" t="n">
+      <c r="DI13">
         <v>-267.28</v>
       </c>
-      <c r="DJ13" t="n">
-        <v>-8783.654</v>
-      </c>
-      <c r="DK13" t="n">
-        <v>-5847.066</v>
-      </c>
-      <c r="DL13" t="n">
-        <v>-9613.183999999999</v>
-      </c>
-      <c r="DM13" t="n">
-        <v>-4352.114</v>
-      </c>
-      <c r="DN13" t="n">
-        <v>-7577.127</v>
-      </c>
-      <c r="DO13" t="n">
-        <v>4214.919</v>
-      </c>
-      <c r="DP13" t="n">
-        <v>-11127.053</v>
-      </c>
-      <c r="DQ13" t="n">
-        <v>-2527.23</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>-2339.627</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>21263.314</v>
-      </c>
-      <c r="DT13" t="n">
-        <v>8369.957</v>
-      </c>
-      <c r="DU13" t="n">
-        <v>18701.286</v>
+      <c r="DJ13">
+        <v>-8658.277</v>
+      </c>
+      <c r="DK13">
+        <v>-5990.901</v>
+      </c>
+      <c r="DL13">
+        <v>-9670.518</v>
+      </c>
+      <c r="DM13">
+        <v>-4249.053</v>
+      </c>
+      <c r="DN13">
+        <v>-6895.484</v>
+      </c>
+      <c r="DO13">
+        <v>6411.706</v>
+      </c>
+      <c r="DP13">
+        <v>-12647.706</v>
+      </c>
+      <c r="DQ13">
+        <v>-4202.249</v>
+      </c>
+      <c r="DR13">
+        <v>-2554.736</v>
+      </c>
+      <c r="DS13">
+        <v>20706.999</v>
+      </c>
+      <c r="DT13">
+        <v>8801.602999999999</v>
+      </c>
+      <c r="DU13">
+        <v>19074.343</v>
+      </c>
+      <c r="DV13">
+        <v>22196.883</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>CurrentExports of goods and services</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:126">
+      <c r="A14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14">
         <v>23787</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>23876</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>28457</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>29041</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>25238</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>27655</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>29868</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>31733</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>30125</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>33892</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>36068</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>35811</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>38113</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>42086</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>45897</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>48159</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>46188</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>49962</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>55691</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14">
         <v>57482</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14">
         <v>54783</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14">
         <v>58135</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14">
         <v>59117</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14">
         <v>60324</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14">
         <v>58308</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14">
         <v>59276</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14">
         <v>67764</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14">
         <v>77537</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14">
         <v>80718</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14">
         <v>78896</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14">
         <v>83652</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14">
         <v>84570</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14">
         <v>78711</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14">
         <v>87727</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14">
         <v>96647</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14">
         <v>101777</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14">
         <v>97604</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14">
         <v>104908</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14">
         <v>114892</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14">
         <v>109600</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14">
         <v>101462</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14">
         <v>97351</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14">
         <v>95573</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14">
         <v>94870</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14">
         <v>96007</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14">
         <v>101934</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14">
         <v>108070</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14">
         <v>109029</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AX14">
         <v>103952</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AY14">
         <v>106497</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="AZ14">
         <v>113012</v>
       </c>
-      <c r="BA14" t="n">
+      <c r="BA14">
         <v>124384</v>
       </c>
-      <c r="BB14" t="n">
+      <c r="BB14">
         <v>124667</v>
       </c>
-      <c r="BC14" t="n">
+      <c r="BC14">
         <v>134785</v>
       </c>
-      <c r="BD14" t="n">
+      <c r="BD14">
         <v>143078</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BE14">
         <v>144395</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BF14">
         <v>142438.2359</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BG14">
         <v>150947.2477</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BH14">
         <v>158063.5109</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BI14">
         <v>162245.4156</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BJ14">
         <v>155409.7656</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="BK14">
         <v>161415.16957</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BL14">
         <v>178891.2585835</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BM14">
         <v>173788.995118304</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BN14">
         <v>161404.2543</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="BO14">
         <v>170580.7914</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BP14">
         <v>184680.1249</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BQ14">
         <v>189716.9146</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="BR14">
         <v>176366.71181</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="BS14">
         <v>201944.53435</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="BT14">
         <v>212122.94076</v>
       </c>
-      <c r="BU14" t="n">
+      <c r="BU14">
         <v>175661.51015</v>
       </c>
-      <c r="BV14" t="n">
+      <c r="BV14">
         <v>141705</v>
       </c>
-      <c r="BW14" t="n">
+      <c r="BW14">
         <v>153819</v>
       </c>
-      <c r="BX14" t="n">
+      <c r="BX14">
         <v>170484</v>
       </c>
-      <c r="BY14" t="n">
+      <c r="BY14">
         <v>185663</v>
       </c>
-      <c r="BZ14" t="n">
+      <c r="BZ14">
         <v>175519</v>
       </c>
-      <c r="CA14" t="n">
+      <c r="CA14">
         <v>174712</v>
       </c>
-      <c r="CB14" t="n">
+      <c r="CB14">
         <v>178856</v>
       </c>
-      <c r="CC14" t="n">
+      <c r="CC14">
         <v>184989</v>
       </c>
-      <c r="CD14" t="n">
+      <c r="CD14">
         <v>184799</v>
       </c>
-      <c r="CE14" t="n">
+      <c r="CE14">
         <v>192453</v>
       </c>
-      <c r="CF14" t="n">
+      <c r="CF14">
         <v>197130</v>
       </c>
-      <c r="CG14" t="n">
+      <c r="CG14">
         <v>202920</v>
       </c>
-      <c r="CH14" t="n">
+      <c r="CH14">
         <v>190463</v>
       </c>
-      <c r="CI14" t="n">
+      <c r="CI14">
         <v>195980</v>
       </c>
-      <c r="CJ14" t="n">
+      <c r="CJ14">
         <v>189667</v>
       </c>
-      <c r="CK14" t="n">
+      <c r="CK14">
         <v>194091</v>
       </c>
-      <c r="CL14" t="n">
+      <c r="CL14">
         <v>183584</v>
       </c>
-      <c r="CM14" t="n">
+      <c r="CM14">
         <v>184283</v>
       </c>
-      <c r="CN14" t="n">
+      <c r="CN14">
         <v>196404</v>
       </c>
-      <c r="CO14" t="n">
+      <c r="CO14">
         <v>206096</v>
       </c>
-      <c r="CP14" t="n">
+      <c r="CP14">
         <v>201842</v>
       </c>
-      <c r="CQ14" t="n">
+      <c r="CQ14">
         <v>206750</v>
       </c>
-      <c r="CR14" t="n">
+      <c r="CR14">
         <v>201161</v>
       </c>
-      <c r="CS14" t="n">
+      <c r="CS14">
         <v>206731</v>
       </c>
-      <c r="CT14" t="n">
+      <c r="CT14">
         <v>193829.198</v>
       </c>
-      <c r="CU14" t="n">
+      <c r="CU14">
         <v>194753.629</v>
       </c>
-      <c r="CV14" t="n">
+      <c r="CV14">
         <v>209067.659</v>
       </c>
-      <c r="CW14" t="n">
+      <c r="CW14">
         <v>219719.761</v>
       </c>
-      <c r="CX14" t="n">
+      <c r="CX14">
         <v>197023.824</v>
       </c>
-      <c r="CY14" t="n">
+      <c r="CY14">
         <v>199691.4</v>
       </c>
-      <c r="CZ14" t="n">
+      <c r="CZ14">
         <v>209548.925</v>
       </c>
-      <c r="DA14" t="n">
+      <c r="DA14">
         <v>228227.053</v>
       </c>
-      <c r="DB14" t="n">
-        <v>37115.757</v>
-      </c>
-      <c r="DC14" t="n">
-        <v>40230.117</v>
-      </c>
-      <c r="DD14" t="n">
-        <v>41151.089</v>
-      </c>
-      <c r="DE14" t="n">
-        <v>40886.97</v>
-      </c>
-      <c r="DF14" t="n">
+      <c r="DB14">
+        <v>231567.028</v>
+      </c>
+      <c r="DC14">
+        <v>234845.699</v>
+      </c>
+      <c r="DD14">
+        <v>245639.68</v>
+      </c>
+      <c r="DE14">
+        <v>248725.619</v>
+      </c>
+      <c r="DF14">
         <v>237090.245</v>
       </c>
-      <c r="DG14" t="n">
+      <c r="DG14">
         <v>241231.778</v>
       </c>
-      <c r="DH14" t="n">
+      <c r="DH14">
         <v>252773.63</v>
       </c>
-      <c r="DI14" t="n">
+      <c r="DI14">
         <v>261415.551</v>
       </c>
-      <c r="DJ14" t="n">
+      <c r="DJ14">
         <v>240098.356</v>
       </c>
-      <c r="DK14" t="n">
+      <c r="DK14">
         <v>244462.915</v>
       </c>
-      <c r="DL14" t="n">
+      <c r="DL14">
         <v>249305.33</v>
       </c>
-      <c r="DM14" t="n">
+      <c r="DM14">
         <v>253614.823</v>
       </c>
-      <c r="DN14" t="n">
-        <v>223857.937</v>
-      </c>
-      <c r="DO14" t="n">
-        <v>183709.412</v>
-      </c>
-      <c r="DP14" t="n">
-        <v>224818.271</v>
-      </c>
-      <c r="DQ14" t="n">
-        <v>237886.18</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>245814.73</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>265127.811</v>
-      </c>
-      <c r="DT14" t="n">
-        <v>258057.225</v>
-      </c>
-      <c r="DU14" t="n">
-        <v>294934.383</v>
+      <c r="DN14">
+        <v>224436.974</v>
+      </c>
+      <c r="DO14">
+        <v>184094.056</v>
+      </c>
+      <c r="DP14">
+        <v>226585.985</v>
+      </c>
+      <c r="DQ14">
+        <v>238360.409</v>
+      </c>
+      <c r="DR14">
+        <v>246045.347</v>
+      </c>
+      <c r="DS14">
+        <v>265150.209</v>
+      </c>
+      <c r="DT14">
+        <v>257797.392</v>
+      </c>
+      <c r="DU14">
+        <v>294824.232</v>
+      </c>
+      <c r="DV14">
+        <v>292981.629</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>CurrentImports of goods and services</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:126">
+      <c r="A15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15">
         <v>25670</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>26628</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>28619</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>29190</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>27245</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>27140</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>29192</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>28873</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>29372</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>33493</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>35264</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>37939</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>39447</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>42284</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>46525</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>49133</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>47499</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>54629</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>58275</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15">
         <v>57674</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15">
         <v>55181</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15">
         <v>56921</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15">
         <v>57422</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15">
         <v>59318</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15">
         <v>56193</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15">
         <v>62918</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15">
         <v>65538</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15">
         <v>75660</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15">
         <v>70435</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15">
         <v>64899</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15">
         <v>65831</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15">
         <v>64371</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15">
         <v>62987</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15">
         <v>69423</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15">
         <v>75264</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15">
         <v>81840</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15">
         <v>78977</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15">
         <v>89387</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15">
         <v>98829</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15">
         <v>91337</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15">
         <v>85394</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15">
         <v>81775</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15">
         <v>79065</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15">
         <v>81531</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15">
         <v>81027</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15">
         <v>87567</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15">
         <v>91527</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15">
         <v>88797</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX15">
         <v>82406</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY15">
         <v>86997</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="AZ15">
         <v>92323</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BA15">
         <v>103657</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BB15">
         <v>100794</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="BC15">
         <v>111833</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="BD15">
         <v>118254</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BE15">
         <v>119469</v>
       </c>
-      <c r="BF15" t="n">
+      <c r="BF15">
         <v>111455.3774</v>
       </c>
-      <c r="BG15" t="n">
+      <c r="BG15">
         <v>122371.8562</v>
       </c>
-      <c r="BH15" t="n">
+      <c r="BH15">
         <v>129332.8867</v>
       </c>
-      <c r="BI15" t="n">
+      <c r="BI15">
         <v>131254.301</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="BJ15">
         <v>125299.68</v>
       </c>
-      <c r="BK15" t="n">
+      <c r="BK15">
         <v>134056.54</v>
       </c>
-      <c r="BL15" t="n">
+      <c r="BL15">
         <v>141855.26</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="BM15">
         <v>138231.94</v>
       </c>
-      <c r="BN15" t="n">
+      <c r="BN15">
         <v>135084.4153</v>
       </c>
-      <c r="BO15" t="n">
+      <c r="BO15">
         <v>139170.82</v>
       </c>
-      <c r="BP15" t="n">
+      <c r="BP15">
         <v>147328.397</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="BQ15">
         <v>152588.641</v>
       </c>
-      <c r="BR15" t="n">
+      <c r="BR15">
         <v>141948.25824</v>
       </c>
-      <c r="BS15" t="n">
+      <c r="BS15">
         <v>151679.03046</v>
       </c>
-      <c r="BT15" t="n">
+      <c r="BT15">
         <v>162176.2229</v>
       </c>
-      <c r="BU15" t="n">
+      <c r="BU15">
         <v>138356.61789</v>
       </c>
-      <c r="BV15" t="n">
+      <c r="BV15">
         <v>105534</v>
       </c>
-      <c r="BW15" t="n">
+      <c r="BW15">
         <v>119060</v>
       </c>
-      <c r="BX15" t="n">
+      <c r="BX15">
         <v>134864</v>
       </c>
-      <c r="BY15" t="n">
+      <c r="BY15">
         <v>147684</v>
       </c>
-      <c r="BZ15" t="n">
+      <c r="BZ15">
         <v>132056</v>
       </c>
-      <c r="CA15" t="n">
+      <c r="CA15">
         <v>146161</v>
       </c>
-      <c r="CB15" t="n">
+      <c r="CB15">
         <v>151249</v>
       </c>
-      <c r="CC15" t="n">
+      <c r="CC15">
         <v>153872</v>
       </c>
-      <c r="CD15" t="n">
+      <c r="CD15">
         <v>149091</v>
       </c>
-      <c r="CE15" t="n">
+      <c r="CE15">
         <v>156482</v>
       </c>
-      <c r="CF15" t="n">
+      <c r="CF15">
         <v>160693</v>
       </c>
-      <c r="CG15" t="n">
+      <c r="CG15">
         <v>169051</v>
       </c>
-      <c r="CH15" t="n">
+      <c r="CH15">
         <v>160857</v>
       </c>
-      <c r="CI15" t="n">
+      <c r="CI15">
         <v>171793</v>
       </c>
-      <c r="CJ15" t="n">
+      <c r="CJ15">
         <v>168539</v>
       </c>
-      <c r="CK15" t="n">
+      <c r="CK15">
         <v>164525</v>
       </c>
-      <c r="CL15" t="n">
+      <c r="CL15">
         <v>158981</v>
       </c>
-      <c r="CM15" t="n">
+      <c r="CM15">
         <v>170628</v>
       </c>
-      <c r="CN15" t="n">
+      <c r="CN15">
         <v>175461</v>
       </c>
-      <c r="CO15" t="n">
+      <c r="CO15">
         <v>178339</v>
       </c>
-      <c r="CP15" t="n">
+      <c r="CP15">
         <v>170774</v>
       </c>
-      <c r="CQ15" t="n">
+      <c r="CQ15">
         <v>180898</v>
       </c>
-      <c r="CR15" t="n">
+      <c r="CR15">
         <v>179287</v>
       </c>
-      <c r="CS15" t="n">
+      <c r="CS15">
         <v>182904</v>
       </c>
-      <c r="CT15" t="n">
+      <c r="CT15">
         <v>170162.265</v>
       </c>
-      <c r="CU15" t="n">
+      <c r="CU15">
         <v>176221.371</v>
       </c>
-      <c r="CV15" t="n">
+      <c r="CV15">
         <v>187480.806</v>
       </c>
-      <c r="CW15" t="n">
+      <c r="CW15">
         <v>194913.801</v>
       </c>
-      <c r="CX15" t="n">
+      <c r="CX15">
         <v>179335.207</v>
       </c>
-      <c r="CY15" t="n">
+      <c r="CY15">
         <v>183403.152</v>
       </c>
-      <c r="CZ15" t="n">
+      <c r="CZ15">
         <v>186547.141</v>
       </c>
-      <c r="DA15" t="n">
+      <c r="DA15">
         <v>202077.3</v>
       </c>
-      <c r="DB15" t="n">
-        <v>43118.834</v>
-      </c>
-      <c r="DC15" t="n">
-        <v>44955.834</v>
-      </c>
-      <c r="DD15" t="n">
-        <v>46146.149</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>48021.815</v>
-      </c>
-      <c r="DF15" t="n">
+      <c r="DB15">
+        <v>212255.499</v>
+      </c>
+      <c r="DC15">
+        <v>212195.848</v>
+      </c>
+      <c r="DD15">
+        <v>219055.632</v>
+      </c>
+      <c r="DE15">
+        <v>223016.531</v>
+      </c>
+      <c r="DF15">
         <v>209241.391</v>
       </c>
-      <c r="DG15" t="n">
+      <c r="DG15">
         <v>222115.645</v>
       </c>
-      <c r="DH15" t="n">
+      <c r="DH15">
         <v>230753.633</v>
       </c>
-      <c r="DI15" t="n">
+      <c r="DI15">
         <v>233294.702</v>
       </c>
-      <c r="DJ15" t="n">
+      <c r="DJ15">
         <v>207994.53</v>
       </c>
-      <c r="DK15" t="n">
+      <c r="DK15">
         <v>219691.707</v>
       </c>
-      <c r="DL15" t="n">
+      <c r="DL15">
         <v>220956.549</v>
       </c>
-      <c r="DM15" t="n">
+      <c r="DM15">
         <v>224975.296</v>
       </c>
-      <c r="DN15" t="n">
-        <v>202650.155</v>
-      </c>
-      <c r="DO15" t="n">
-        <v>170247.267</v>
-      </c>
-      <c r="DP15" t="n">
-        <v>196734.866</v>
-      </c>
-      <c r="DQ15" t="n">
-        <v>209378.291</v>
-      </c>
-      <c r="DR15" t="n">
-        <v>224153.056</v>
-      </c>
-      <c r="DS15" t="n">
-        <v>239883.168</v>
-      </c>
-      <c r="DT15" t="n">
-        <v>232097.824</v>
-      </c>
-      <c r="DU15" t="n">
-        <v>258649.039</v>
+      <c r="DN15">
+        <v>204101.869</v>
+      </c>
+      <c r="DO15">
+        <v>172800.144</v>
+      </c>
+      <c r="DP15">
+        <v>196871.745</v>
+      </c>
+      <c r="DQ15">
+        <v>209378.571</v>
+      </c>
+      <c r="DR15">
+        <v>224157.09</v>
+      </c>
+      <c r="DS15">
+        <v>239709.871</v>
+      </c>
+      <c r="DT15">
+        <v>231615.603</v>
+      </c>
+      <c r="DU15">
+        <v>258489.623</v>
+      </c>
+      <c r="DV15">
+        <v>267414.084</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/548/BNM/Gross National Income (GNI) by Expenditure Components in ConstantQ_historical.xlsx
+++ b/INTLINE/data/548/BNM/Gross National Income (GNI) by Expenditure Components in ConstantQ_historical.xlsx
@@ -1,462 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gross National Income (GNI) by" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income (GNI) by" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
-  <si>
-    <t>1991-Q1</t>
-  </si>
-  <si>
-    <t>1991-Q2</t>
-  </si>
-  <si>
-    <t>1991-Q3</t>
-  </si>
-  <si>
-    <t>1991-Q4</t>
-  </si>
-  <si>
-    <t>1992-Q1</t>
-  </si>
-  <si>
-    <t>1992-Q2</t>
-  </si>
-  <si>
-    <t>1992-Q3</t>
-  </si>
-  <si>
-    <t>1992-Q4</t>
-  </si>
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>2022-Q1</t>
-  </si>
-  <si>
-    <t>ConstantFinal consumption expenditureTotal</t>
-  </si>
-  <si>
-    <t>ConstantFinal consumption expenditurePrivate sector</t>
-  </si>
-  <si>
-    <t>ConstantFinal consumption expenditurePublic sector</t>
-  </si>
-  <si>
-    <t>ConstantGross fixed capital formationTotal</t>
-  </si>
-  <si>
-    <t>ConstantChanges in inventories and valuables</t>
-  </si>
-  <si>
-    <t>ConstantExports of goods and services</t>
-  </si>
-  <si>
-    <t>ConstantImports of goods and services</t>
-  </si>
-  <si>
-    <t>CurrentFinal consumption expenditureTotal</t>
-  </si>
-  <si>
-    <t>CurrentFinal consumption expenditurePrivate sector</t>
-  </si>
-  <si>
-    <t>CurrentFinal consumption expenditurePublic sector</t>
-  </si>
-  <si>
-    <t>CurrentGross fixed capital formationTotal</t>
-  </si>
-  <si>
-    <t>CurrentChanges in inventories and valuables</t>
-  </si>
-  <si>
-    <t>CurrentExports of goods and services</t>
-  </si>
-  <si>
-    <t>CurrentImports of goods and services</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -471,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -490,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -787,5711 +353,5995 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:DV15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:126">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:126">
-      <c r="A2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ConstantFinal consumption expenditureTotal</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>41110.67623</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>37331.42056</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>42127.57599</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>44101.2947</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>42951.62591</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>40064.03891</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>43437.26471</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>45976.54148</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>42072.06851</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>44207.78247</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>46752.02674</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>50950.24747</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>47694.9301</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>46148.07367</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>50022.47098</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>56806.57394</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>52819.59556</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>52667.08807</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>54720.18586</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>61519.92151</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>55993.9962</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>54206.42126</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>59586.89036</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>64449.77784</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>58718.61098</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>58735.23133</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>61129.04011</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>66361.79371</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>53764.91006</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>54123.48496</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>55211.50633</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>57404.91256</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>53655.82826</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>55320.90525</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>59946.90051</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>63985.32734</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>60837.87419</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>60497.57954</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>64048.69684</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>70896.55653</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>64009.97664</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>63604.72318</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>67088.53595999999</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>75569.53638000001</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>67302.67332</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>66776.97560999999</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>71948.83364</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>79270.51767</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>73334.75255999999</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>72208.042</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>76479.0465</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>86737.69908000001</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>80511.11141</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>79760.783</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>83075.40364</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>94296.80719000001</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>86724.44534000001</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>84866.61765</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>90803.3268</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>104057.1647</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>91405.19725</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>90988.29182</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>97080.34488999999</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>110312.8907</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>98277.40535</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>100315.7245</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>109198.1972</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>119509.387</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>109299.9728</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>108950.8563</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>117555.6743</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>127105.9938</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>109223.7395</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>110134.0943</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>120968.3485</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>129330.5973</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>116412.6758</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>119705.5897</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>125984.2555</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>136417.1402</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>124718.5452</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>126639.4701</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" t="n">
         <v>137955.0829</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" t="n">
         <v>150970.1919</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" t="n">
         <v>135373.092</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" t="n">
         <v>138916.773</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>148966.1225</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" t="n">
         <v>158676.7447</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" t="n">
         <v>142423.703</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" t="n">
         <v>149563.4565</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" t="n">
         <v>160524.3385</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" t="n">
         <v>169810.1455</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" t="n">
         <v>153625.3145</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" t="n">
         <v>157280.9109</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" t="n">
         <v>170918.6929</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" t="n">
         <v>180470.3209</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" t="n">
         <v>187500.541</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" t="n">
         <v>188986.567</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" t="n">
         <v>200542.228</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" t="n">
         <v>212091.222</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" t="n">
         <v>196249.159</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" t="n">
         <v>200389.953</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" t="n">
         <v>211489.516</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" t="n">
         <v>219771.255</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" t="n">
         <v>209575.189</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" t="n">
         <v>213095.276</v>
       </c>
-      <c r="DD2">
+      <c r="DD2" t="n">
         <v>225486.239</v>
       </c>
-      <c r="DE2">
+      <c r="DE2" t="n">
         <v>234994.698</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" t="n">
         <v>221118.896</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" t="n">
         <v>228246.598</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" t="n">
         <v>244148.612</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" t="n">
         <v>252569.196</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ2" t="n">
         <v>237581.159</v>
       </c>
-      <c r="DK2">
+      <c r="DK2" t="n">
         <v>243005.932</v>
       </c>
-      <c r="DL2">
+      <c r="DL2" t="n">
         <v>258721.82</v>
       </c>
-      <c r="DM2">
+      <c r="DM2" t="n">
         <v>269064.448</v>
       </c>
-      <c r="DN2">
+      <c r="DN2" t="n">
         <v>253155.846</v>
       </c>
-      <c r="DO2">
+      <c r="DO2" t="n">
         <v>206500.844</v>
       </c>
-      <c r="DP2">
+      <c r="DP2" t="n">
         <v>257235.775</v>
       </c>
-      <c r="DQ2">
+      <c r="DQ2" t="n">
         <v>264849.09</v>
       </c>
-      <c r="DR2">
+      <c r="DR2" t="n">
         <v>252301.017</v>
       </c>
-      <c r="DS2">
+      <c r="DS2" t="n">
         <v>229289.4</v>
       </c>
-      <c r="DT2">
+      <c r="DT2" t="n">
         <v>251231.539</v>
       </c>
-      <c r="DU2">
+      <c r="DU2" t="n">
         <v>273378.917</v>
       </c>
-      <c r="DV2">
+      <c r="DV2" t="n">
         <v>266685.47</v>
       </c>
     </row>
-    <row r="3" spans="1:126">
-      <c r="A3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ConstantFinal consumption expenditurePrivate sector</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>39885.9440996412</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>34270.8845887678</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>37588.5374424049</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>37366.2077683424</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>42042.5419668405</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>36014.937390896</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>39463.5177143762</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>38532.2033997234</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>41190.2782137417</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>38522.3220795293</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>41647.2892196865</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>44448.6431462133</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>46615.1223336069</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>42166.0584541145</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>45283.6145965492</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>47311.7553315312</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>53047.8609920533</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>47996.0366716357</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>49194.1465860711</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>52282.0587830771</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>55105.645672464</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>50545.4169635174</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>53507.3423356237</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>57264.7138772888</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>57699.4919203736</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>54260.792901934</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>56718.7710047497</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>57072.0281638091</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>52452.5115336968</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>49391.7729748021</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>49740.0894737644</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>51059.2455530022</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>51054.304892905</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>50169.926841598</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>51778.1115137866</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>55434.1995310376</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>58885.2501921432</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>56095.4065150695</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>58817.0573809166</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>62514.6231452079</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>61129.5513794036</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>58116.9445189894</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>60027.8586291414</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>64193.6816971893</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>63739.0629556781</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>60211.2215215509</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>62202.4516093701</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>66742.5774412622</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>68085.2181245253</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>65187.7813452937</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>67307.8200765412</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>72831.4377859024</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>74195.2940104361</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>71913.10792804979</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>74298.34092517861</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>79934.09792411271</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>80945.910617089</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>77450.2923098336</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>81975.607663933</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>87326.6346545774</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>85986.4945549066</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>83465.9946818688</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>87029.99732342501</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>92877.3755579295</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>92484.5479082589</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>91979.8164790397</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>99393.1979401337</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>101988.039010158</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>103097.788788862</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>100636.073904923</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>108057.998038236</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>107698.011153919</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>102280.590654377</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>100994.016601967</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>109241.461084282</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>109297.39908656</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>108114.278960167</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>109455.797209253</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>116985.866905017</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>116318.530020905</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>115379.695395907</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>116268.337161246</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>125516.371553544</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>124660.811445708</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>124712.145052179</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>127117.980075412</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>137109.781388122</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>133094.352615347</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" t="n">
         <v>132704.217206174</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>135867.508111545</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" t="n">
         <v>148115.70661532</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" t="n">
         <v>143188.821140997</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" t="n">
         <v>141923.732928211</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" t="n">
         <v>144721.984854239</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" t="n">
         <v>158188.500951572</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" t="n">
         <v>154101.205129739</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" t="n">
         <v>154769.449</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" t="n">
         <v>154019.558</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" t="n">
         <v>164632.247</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" t="n">
         <v>161678.18</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" t="n">
         <v>162610.99</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" t="n">
         <v>163473.83</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" t="n">
         <v>174771.494</v>
       </c>
-      <c r="DA3">
+      <c r="DA3" t="n">
         <v>171403.966</v>
       </c>
-      <c r="DB3">
+      <c r="DB3" t="n">
         <v>173330.089</v>
       </c>
-      <c r="DC3">
+      <c r="DC3" t="n">
         <v>174884.185</v>
       </c>
-      <c r="DD3">
+      <c r="DD3" t="n">
         <v>187229.352</v>
       </c>
-      <c r="DE3">
+      <c r="DE3" t="n">
         <v>183258.184</v>
       </c>
-      <c r="DF3">
+      <c r="DF3" t="n">
         <v>184719.862</v>
       </c>
-      <c r="DG3">
+      <c r="DG3" t="n">
         <v>188796.072</v>
       </c>
-      <c r="DH3">
+      <c r="DH3" t="n">
         <v>203883.717</v>
       </c>
-      <c r="DI3">
+      <c r="DI3" t="n">
         <v>198654.113</v>
       </c>
-      <c r="DJ3">
+      <c r="DJ3" t="n">
         <v>199021.751</v>
       </c>
-      <c r="DK3">
+      <c r="DK3" t="n">
         <v>203545.432</v>
       </c>
-      <c r="DL3">
+      <c r="DL3" t="n">
         <v>218308.532</v>
       </c>
-      <c r="DM3">
+      <c r="DM3" t="n">
         <v>214838.592</v>
       </c>
-      <c r="DN3">
+      <c r="DN3" t="n">
         <v>212651.281</v>
       </c>
-      <c r="DO3">
+      <c r="DO3" t="n">
         <v>166101.054</v>
       </c>
-      <c r="DP3">
+      <c r="DP3" t="n">
         <v>214076.862</v>
       </c>
-      <c r="DQ3">
+      <c r="DQ3" t="n">
         <v>207684.612</v>
       </c>
-      <c r="DR3">
+      <c r="DR3" t="n">
         <v>209524.18</v>
       </c>
-      <c r="DS3">
+      <c r="DS3" t="n">
         <v>185559.36</v>
       </c>
-      <c r="DT3">
+      <c r="DT3" t="n">
         <v>204997.4</v>
       </c>
-      <c r="DU3">
+      <c r="DU3" t="n">
         <v>215307.069</v>
       </c>
-      <c r="DV3">
+      <c r="DV3" t="n">
         <v>221036.068</v>
       </c>
     </row>
-    <row r="4" spans="1:126">
-      <c r="A4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ConstantFinal consumption expenditurePublic sector</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>6600.46376044881</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>7825.57590763667</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>9851.369963089221</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>12177.7065131434</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>6547.69675740201</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>9117.22036263418</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>9493.472033431521</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>13093.0992973436</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>6405.45527194079</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>11204.9582909754</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>10996.1844977046</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>12865.9717643889</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>7336.90757836431</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>9860.54683293113</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>11085.6589815748</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>16456.422158459</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>6786.29537765908</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>11372.4361685019</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>12448.4241778471</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>16839.5564801819</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>8256.888797485461</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>10626.8154807445</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>13613.8866710625</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>15297.8423118017</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>8740.968691836841</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>11991.8748944773</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>12248.8272558739</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>17530.1159532554</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>8360.12858611855</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>11622.5058775172</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>12462.1894840658</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>13574.8849727786</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>9557.710123780689</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>12175.4122956829</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>15625.9154173848</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>16520.6602415292</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>9899.54853121505</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>12157.5190859084</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>13408.0649959545</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>17277.6238188912</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>11192.3131041149</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>13590.0419910136</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>15530.6446663238</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>20711.8936696465</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>12271.0727308253</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>15024.0207120793</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>18699.9560122732</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>22285.6307229178</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>14655.6992740798</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>16171.2036889319</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>18759.6444666525</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>24571.26178086</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>16609.4042930343</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>17950.2107926297</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>19263.3567889761</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>26002.3288700048</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>16927.788308574</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>18221.4011400073</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>20335.272647194</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>29522.2373627666</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>17209.8777475597</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>19132.4263214691</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>22316.7721453632</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>31014.2245957866</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>18472.5281044834</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>21133.6796686853</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>23692.2413440281</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>32313.8638001285</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>20318.3516087942</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>22258.3507396396</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>24511.0271939194</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>35094.5675351411</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>21004.9051150474</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>23191.1271515497</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>27059.2681363336</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>35977.254909921</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>23231.9630749468</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>25503.1275094728</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>25158.7516079694</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>36978.0329377633</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>25311.0923494444</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" t="n">
         <v>26536.2552139833</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" t="n">
         <v>29980.0142290181</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>44746.3379308684</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>27966.3271040273</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>29505.8268506239</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>30891.9130336223</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>45084.2768996334</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>28015.6769216883</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>32700.6911331079</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" t="n">
         <v>32943.1489329203</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" t="n">
         <v>47536.7482729573</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" t="n">
         <v>31363.9547677704</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" t="n">
         <v>32654.5597818162</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" t="n">
         <v>34623.1883776383</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" t="n">
         <v>48712.5613198352</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" t="n">
         <v>32731.092</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" t="n">
         <v>34967.009</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" t="n">
         <v>35909.981</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" t="n">
         <v>50413.042</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" t="n">
         <v>33638.169</v>
       </c>
-      <c r="CY4">
+      <c r="CY4" t="n">
         <v>36916.123</v>
       </c>
-      <c r="CZ4">
+      <c r="CZ4" t="n">
         <v>36718.022</v>
       </c>
-      <c r="DA4">
+      <c r="DA4" t="n">
         <v>48367.289</v>
       </c>
-      <c r="DB4">
+      <c r="DB4" t="n">
         <v>36245.1</v>
       </c>
-      <c r="DC4">
+      <c r="DC4" t="n">
         <v>38211.091</v>
       </c>
-      <c r="DD4">
+      <c r="DD4" t="n">
         <v>38256.887</v>
       </c>
-      <c r="DE4">
+      <c r="DE4" t="n">
         <v>51736.514</v>
       </c>
-      <c r="DF4">
+      <c r="DF4" t="n">
         <v>36399.034</v>
       </c>
-      <c r="DG4">
+      <c r="DG4" t="n">
         <v>39450.526</v>
       </c>
-      <c r="DH4">
+      <c r="DH4" t="n">
         <v>40264.895</v>
       </c>
-      <c r="DI4">
+      <c r="DI4" t="n">
         <v>53915.083</v>
       </c>
-      <c r="DJ4">
+      <c r="DJ4" t="n">
         <v>38559.408</v>
       </c>
-      <c r="DK4">
+      <c r="DK4" t="n">
         <v>39460.5</v>
       </c>
-      <c r="DL4">
+      <c r="DL4" t="n">
         <v>40413.288</v>
       </c>
-      <c r="DM4">
+      <c r="DM4" t="n">
         <v>54225.856</v>
       </c>
-      <c r="DN4">
+      <c r="DN4" t="n">
         <v>40504.565</v>
       </c>
-      <c r="DO4">
+      <c r="DO4" t="n">
         <v>40399.79</v>
       </c>
-      <c r="DP4">
+      <c r="DP4" t="n">
         <v>43158.913</v>
       </c>
-      <c r="DQ4">
+      <c r="DQ4" t="n">
         <v>57164.478</v>
       </c>
-      <c r="DR4">
+      <c r="DR4" t="n">
         <v>42776.837</v>
       </c>
-      <c r="DS4">
+      <c r="DS4" t="n">
         <v>43730.04</v>
       </c>
-      <c r="DT4">
+      <c r="DT4" t="n">
         <v>46234.139</v>
       </c>
-      <c r="DU4">
+      <c r="DU4" t="n">
         <v>58071.848</v>
       </c>
-      <c r="DV4">
+      <c r="DV4" t="n">
         <v>45649.402</v>
       </c>
     </row>
-    <row r="5" spans="1:126">
-      <c r="A5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ConstantGross fixed capital formationTotal</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>22156.8627396205</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>22087.1390999167</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>25309.67820035</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>26124.5731311155</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>25490.5238640075</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>24605.9052935383</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>28819.8272579866</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>27275.0130535696</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>27392.6716809384</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>31257.9754936883</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>32245.0006585092</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>34201.62006652</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>32214.4965612617</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>32748.318122632</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>40075.8360053536</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>40221.8198569625</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>44239.6441247364</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>48401.2733711119</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>34986.0109156447</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>50811.0963825734</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>45204.8806375185</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>47978.573849302</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>48433.9563257601</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>51484.3651921376</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>45799.7103777772</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>54384.4324921055</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>57912.0124557662</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>52693.6344204727</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>34920.6450063488</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>31074.9509726303</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>25224.7025276294</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>29000.6729372507</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>26170.3292769867</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>27621.4523478674</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>27963.5339117577</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>30604.3164475486</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>32212.3177038612</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>36340.3012468221</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>37676.2384539202</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>34450.324660612</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>34902.9202097456</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>37243.9316707821</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>33880.6785384265</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>31751.9187831905</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>32074.9783648137</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>36516.6574435534</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>34954.4224618885</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>35027.7741543343</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>33311.032416241</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>36797.5788188779</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>36074.9866145712</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>36330.9372009779</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>34621.9988344213</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>38136.6373745907</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>37468.6687710415</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>37351.6181979898</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>35469.4309978617</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>40148.0905205004</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>40962.9680431941</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>40321.4668828962</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>39716.459500577</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>42723.9418442177</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>41369.3360603366</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>42921.5181354992</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>42652.7942969868</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>46057.0866695039</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>47156.4367186119</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>48137.2745177764</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>45855.3322954433</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>49683.1278679272</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>48225.2970192988</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>44571.036003616</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>42530.4619435447</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>46583.8169874294</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>45697.3073434124</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>48422.839183266</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>46055.2750189307</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>53256.1722164148</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>51686.1186582234</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>53923.3337850514</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>51077.8896948164</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>54871.8151484631</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>54637.1966634925</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" t="n">
         <v>57348.0965040525</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" t="n">
         <v>58030.8251759572</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" t="n">
         <v>68704.2983381948</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" t="n">
         <v>66348.10606495989</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" t="n">
         <v>66223.56923881439</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" t="n">
         <v>65275.0878754027</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" t="n">
         <v>72690.5887107983</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" t="n">
         <v>72160.1952637322</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" t="n">
         <v>70262.12060096121</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" t="n">
         <v>69675.018420561</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" t="n">
         <v>77742.1137213249</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" t="n">
         <v>73095.3333957712</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" t="n">
         <v>73307.71316178719</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" t="n">
         <v>74977.84699999999</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" t="n">
         <v>77560.09699999999</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" t="n">
         <v>76447.07000000001</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" t="n">
         <v>75438.399</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" t="n">
         <v>75035.501</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" t="n">
         <v>82264.87699999999</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" t="n">
         <v>77890.91</v>
       </c>
-      <c r="DA5">
+      <c r="DA5" t="n">
         <v>76998.796</v>
       </c>
-      <c r="DB5">
+      <c r="DB5" t="n">
         <v>82183.122</v>
       </c>
-      <c r="DC5">
+      <c r="DC5" t="n">
         <v>85476.88499999999</v>
       </c>
-      <c r="DD5">
+      <c r="DD5" t="n">
         <v>83027.89200000001</v>
       </c>
-      <c r="DE5">
+      <c r="DE5" t="n">
         <v>80404.64200000001</v>
       </c>
-      <c r="DF5">
+      <c r="DF5" t="n">
         <v>82365.461</v>
       </c>
-      <c r="DG5">
+      <c r="DG5" t="n">
         <v>86933.913</v>
       </c>
-      <c r="DH5">
+      <c r="DH5" t="n">
         <v>85387.83</v>
       </c>
-      <c r="DI5">
+      <c r="DI5" t="n">
         <v>80905.264</v>
       </c>
-      <c r="DJ5">
+      <c r="DJ5" t="n">
         <v>79544.342</v>
       </c>
-      <c r="DK5">
+      <c r="DK5" t="n">
         <v>86418.57399999999</v>
       </c>
-      <c r="DL5">
+      <c r="DL5" t="n">
         <v>82218.84</v>
       </c>
-      <c r="DM5">
+      <c r="DM5" t="n">
         <v>80353.96400000001</v>
       </c>
-      <c r="DN5">
+      <c r="DN5" t="n">
         <v>76018.342</v>
       </c>
-      <c r="DO5">
+      <c r="DO5" t="n">
         <v>61358.271</v>
       </c>
-      <c r="DP5">
+      <c r="DP5" t="n">
         <v>72872.336</v>
       </c>
-      <c r="DQ5">
+      <c r="DQ5" t="n">
         <v>70924.424</v>
       </c>
-      <c r="DR5">
+      <c r="DR5" t="n">
         <v>73521.94899999999</v>
       </c>
-      <c r="DS5">
+      <c r="DS5" t="n">
         <v>71403.637</v>
       </c>
-      <c r="DT5">
+      <c r="DT5" t="n">
         <v>64993.251</v>
       </c>
-      <c r="DU5">
+      <c r="DU5" t="n">
         <v>68784.413</v>
       </c>
-      <c r="DV5">
+      <c r="DV5" t="n">
         <v>73632.36199999999</v>
       </c>
     </row>
-    <row r="6" spans="1:126">
-      <c r="A6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ConstantChanges in inventories and valuables</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>-100.228128696791</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>951.814306737893</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>27.5274437914907</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>-294.331899177029</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>73.4065167990625</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>177.86963685843</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>-117.521010072228</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>-702.302732771294</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>149.283445204542</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>197.632929840284</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>102.69854032496</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>-292.214403408724</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>-189.868779030645</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>739.35890719385</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>400.912514874177</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>-425.969546972237</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>-1072.1586442764</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>485.612341908184</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>2273.4845256335</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>-1655.17578739334</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>-351.504282310776</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>22.9395365037859</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>10.2345624378079</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>-352.563030194928</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>-183.163376039898</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>1557.06515433433</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>-454.55573853911</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>-1016.75084087706</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>701.243984887142</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>172.222981708328</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>311.624780487204</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>-1266.96824669391</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>377.267146476629</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>500.787727667594</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>-57.5252992111516</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>-377.620062292988</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>164.45883089869</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>799.452650201961</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>713.960162710977</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>-456.612547693583</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>-595.184340395257</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>40.0270170441255</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>359.373000852693</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>-119.428436724049</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>140.747174062767</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>822.076616357339</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>914.9654004760411</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>-810.329557007434</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>-319.998598216896</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>407.448928932864</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>418.325835738334</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>-295.851865108753</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>-54.166995891235</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>693.2940397805889</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>882.1171419235289</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>-639.779658297678</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>-591.476272271052</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>1625.55451853843</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>3335.85930325298</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>-4063.85453058404</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>1822.07244928145</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>3607.60415347116</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>741.297580472941</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>-4136.88692494419</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>3525.33744959105</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>2604.024686191</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>-1945.63409602094</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>-2981.13782067889</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>402.458497601979</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>38.0449314623125</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>407.923149699837</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>-122.641649731427</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>-6421.41676223755</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>-258.433967001719</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>1519.05787176597</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>-106.164188322302</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>-9583.02365468164</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>12159.031679952</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>14773.8281343009</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>474.587838136615</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>7794.1925724744</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>7378.92821410486</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>5991.67145647476</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" t="n">
         <v>-10228.7369152233</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" t="n">
         <v>6822.20017321383</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" t="n">
         <v>1610.86064290601</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" t="n">
         <v>8841.48015759318</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" t="n">
         <v>-7488.44848444408</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" t="n">
         <v>3198.90456282468</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" t="n">
         <v>6867.83361918851</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" t="n">
         <v>-6918.03040976065</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" t="n">
         <v>-10315.4404625752</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" t="n">
         <v>-4209.68539116372</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" t="n">
         <v>-4983.17230043445</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" t="n">
         <v>-4663.73817861173</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" t="n">
         <v>-6386.40076415569</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" t="n">
         <v>-2974.992</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" t="n">
         <v>2020.78</v>
       </c>
-      <c r="CV6">
+      <c r="CV6" t="n">
         <v>-2072.445</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" t="n">
         <v>-2168.128</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" t="n">
         <v>2518.97</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" t="n">
         <v>-1284.92</v>
       </c>
-      <c r="CZ6">
+      <c r="CZ6" t="n">
         <v>-3148.997</v>
       </c>
-      <c r="DA6">
+      <c r="DA6" t="n">
         <v>2212.2</v>
       </c>
-      <c r="DB6">
+      <c r="DB6" t="n">
         <v>1984.562</v>
       </c>
-      <c r="DC6">
+      <c r="DC6" t="n">
         <v>-1283.261</v>
       </c>
-      <c r="DD6">
+      <c r="DD6" t="n">
         <v>-2913.791</v>
       </c>
-      <c r="DE6">
+      <c r="DE6" t="n">
         <v>3244.413</v>
       </c>
-      <c r="DF6">
+      <c r="DF6" t="n">
         <v>-2505.48</v>
       </c>
-      <c r="DG6">
+      <c r="DG6" t="n">
         <v>172.329</v>
       </c>
-      <c r="DH6">
+      <c r="DH6" t="n">
         <v>-5223.472</v>
       </c>
-      <c r="DI6">
+      <c r="DI6" t="n">
         <v>-1121.085</v>
       </c>
-      <c r="DJ6">
+      <c r="DJ6" t="n">
         <v>-4670.249</v>
       </c>
-      <c r="DK6">
+      <c r="DK6" t="n">
         <v>-3475.194</v>
       </c>
-      <c r="DL6">
+      <c r="DL6" t="n">
         <v>-4469.775</v>
       </c>
-      <c r="DM6">
+      <c r="DM6" t="n">
         <v>-1267.366</v>
       </c>
-      <c r="DN6">
+      <c r="DN6" t="n">
         <v>-2464.998</v>
       </c>
-      <c r="DO6">
+      <c r="DO6" t="n">
         <v>9386.344999999999</v>
       </c>
-      <c r="DP6">
+      <c r="DP6" t="n">
         <v>-9217.527</v>
       </c>
-      <c r="DQ6">
+      <c r="DQ6" t="n">
         <v>-2544.043</v>
       </c>
-      <c r="DR6">
+      <c r="DR6" t="n">
         <v>-1927.832</v>
       </c>
-      <c r="DS6">
+      <c r="DS6" t="n">
         <v>15177.738</v>
       </c>
-      <c r="DT6">
+      <c r="DT6" t="n">
         <v>1277.613</v>
       </c>
-      <c r="DU6">
+      <c r="DU6" t="n">
         <v>3834.899</v>
       </c>
-      <c r="DV6">
+      <c r="DV6" t="n">
         <v>5759.641</v>
       </c>
     </row>
-    <row r="7" spans="1:126">
-      <c r="A7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ConstantExports of goods and services</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>43073.8960242955</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>43035.6496654955</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>50959.0197463348</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>51747.3196345487</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>47068.5154217518</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>52123.4088008331</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>55484.8385361814</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>57921.981324361</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>52541.9939199786</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>58370.3136141841</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>63010.8714681811</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>63214.8520321151</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>63448.5797667267</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>70692.0146262865</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>75895.6438465063</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>79050.96821476521</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>75338.9468774999</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>81585.8516908508</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>92794.1587894386</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>94192.2755785483</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>89201.126122634</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>94642.7326592774</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>95802.87213196341</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>95998.353495526</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>96795.1525841112</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>96064.22222184821</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>102383.370146489</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>101029.874113395</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>95943.10876048121</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>97477.2125962968</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>100058.841631554</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>104739.770635257</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>97961.6664417646</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>109873.281535093</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>118550.954739407</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>124251.786575029</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>118886.672755985</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>128342.926889351</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>141254.633472229</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>134553.187052067</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>127371.578504926</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>121509.190903593</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>119113.279882238</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>119319.063650944</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>120151.997952846</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>126414.928961124</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>133649.208353825</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>133545.091566088</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>124731.911709927</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>129549.456723725</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>137930.245684929</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>147926.682211146</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>144792.154448544</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>155925.301316181</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>162936.648292786</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>163220.82587814</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>160096.165636342</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>168101.921582599</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>172635.882290652</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>177969.954892727</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>170837.669210049</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>176695.252139914</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>191271.728252635</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>185357.739235398</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>174350.11906796</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>181814.663594139</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>196367.081445563</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>198957.548828308</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>183788.58398908</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>198153.709778499</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>205886.625261377</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>175481.932660324</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>153578.989386681</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>161410.137439643</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>177183.042981344</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>188102.406481181</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>187024.959375271</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>186497.752758366</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>190930.311202103</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>191501.981027662</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>189889.66039002</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>196377.054262295</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>199070.254329375</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>202211.262426477</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" t="n">
         <v>192620.971778804</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" t="n">
         <v>197360.538091822</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>189752.036172755</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>194096.726847008</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>185914.437806731</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>188190.530630718</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" t="n">
         <v>197720.47835236</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" t="n">
         <v>204010.963729165</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" t="n">
         <v>200323.693354306</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" t="n">
         <v>204463.006350487</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" t="n">
         <v>202924.791060602</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" t="n">
         <v>207230.311765325</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" t="n">
         <v>196992.089</v>
       </c>
-      <c r="CU7">
+      <c r="CU7" t="n">
         <v>195711.251</v>
       </c>
-      <c r="CV7">
+      <c r="CV7" t="n">
         <v>209490.57</v>
       </c>
-      <c r="CW7">
+      <c r="CW7" t="n">
         <v>215176.337</v>
       </c>
-      <c r="CX7">
+      <c r="CX7" t="n">
         <v>198933.937</v>
       </c>
-      <c r="CY7">
+      <c r="CY7" t="n">
         <v>199813.09</v>
       </c>
-      <c r="CZ7">
+      <c r="CZ7" t="n">
         <v>209053.983</v>
       </c>
-      <c r="DA7">
+      <c r="DA7" t="n">
         <v>220354.265</v>
       </c>
-      <c r="DB7">
+      <c r="DB7" t="n">
         <v>218683.178</v>
       </c>
-      <c r="DC7">
+      <c r="DC7" t="n">
         <v>218490.947</v>
       </c>
-      <c r="DD7">
+      <c r="DD7" t="n">
         <v>231256.161</v>
       </c>
-      <c r="DE7">
+      <c r="DE7" t="n">
         <v>231633.709</v>
       </c>
-      <c r="DF7">
+      <c r="DF7" t="n">
         <v>223747.425</v>
       </c>
-      <c r="DG7">
+      <c r="DG7" t="n">
         <v>222887.662</v>
       </c>
-      <c r="DH7">
+      <c r="DH7" t="n">
         <v>232374.908</v>
       </c>
-      <c r="DI7">
+      <c r="DI7" t="n">
         <v>238452.152</v>
       </c>
-      <c r="DJ7">
+      <c r="DJ7" t="n">
         <v>224408.616</v>
       </c>
-      <c r="DK7">
+      <c r="DK7" t="n">
         <v>224133.18</v>
       </c>
-      <c r="DL7">
+      <c r="DL7" t="n">
         <v>228651.717</v>
       </c>
-      <c r="DM7">
+      <c r="DM7" t="n">
         <v>230683.509</v>
       </c>
-      <c r="DN7">
+      <c r="DN7" t="n">
         <v>208781.732</v>
       </c>
-      <c r="DO7">
+      <c r="DO7" t="n">
         <v>175905.382</v>
       </c>
-      <c r="DP7">
+      <c r="DP7" t="n">
         <v>219086.359</v>
       </c>
-      <c r="DQ7">
+      <c r="DQ7" t="n">
         <v>226383.3</v>
       </c>
-      <c r="DR7">
+      <c r="DR7" t="n">
         <v>233202.763</v>
       </c>
-      <c r="DS7">
+      <c r="DS7" t="n">
         <v>241127.289</v>
       </c>
-      <c r="DT7">
+      <c r="DT7" t="n">
         <v>228185.864</v>
       </c>
-      <c r="DU7">
+      <c r="DU7" t="n">
         <v>255817.762</v>
       </c>
-      <c r="DV7">
+      <c r="DV7" t="n">
         <v>251892</v>
       </c>
     </row>
-    <row r="8" spans="1:126">
-      <c r="A8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ConstantImports of goods and services</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>39560.3668843368</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>40842.4240630969</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>43890.8711141292</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>44134.8181046261</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>43312.1647510246</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>43595.2857044102</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>46811.1124472854</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>45441.8041628181</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>44872.0009685651</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>50979.578877683</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>53330.0170276648</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>56919.7771060364</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>56275.1872513312</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>62177.9921439192</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>68556.2265611676</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>71925.187912429</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>69179.4488017658</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>80107.20554879319</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>86303.81520182001</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>84706.5856485142</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>79849.01347483951</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>83278.51641417469</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>84825.8881864601</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>87991.857148315</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>83978.3059423485</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>94484.0522110608</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>90888.9502291627</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>86161.36441156569</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>76013.5257788477</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>70976.10947915311</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>70415.2094648304</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>71435.5132932336</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>69642.4138922494</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>77279.55723594929</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>82844.0414795262</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>89587.30607449749</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>87607.2399946869</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>98857.2592428666</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
         <v>109626.480031794</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" t="n">
         <v>101100.616109195</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" t="n">
         <v>94541.1514151062</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" t="n">
         <v>91179.9935225432</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" t="n">
         <v>87956.2066183381</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>90802.223304559</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>89897.1257441687</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>97074.759885868</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>101538.209176948</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>98517.1552636257</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>91397.1283105927</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>96489.8253547957</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>102456.600703953</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>114230.623802885</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>109254.248966566</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>120370.220718042</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>126692.609674158</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>127700.735475816</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>119819.827203755</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>130527.104301451</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>137920.032057237</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>139295.819739988</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>134242.715013115</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>141812.372841772</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>148699.282856035</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>145910.704387987</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>141520.66266247</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>147023.748307765</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>154312.665556811</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>161558.308043925</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>145744.744191507</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>158356.059845737</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>167367.622876607</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>147085.539684589</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>111345.151968012</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>127206.786329669</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>144443.842601327</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>156807.701151513</v>
       </c>
-      <c r="BZ8">
+      <c r="BZ8" t="n">
         <v>142895.846895919</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" t="n">
         <v>156580.8261204</v>
       </c>
-      <c r="CB8">
+      <c r="CB8" t="n">
         <v>161410.818787863</v>
       </c>
-      <c r="CC8">
+      <c r="CC8" t="n">
         <v>163562.477755417</v>
       </c>
-      <c r="CD8">
+      <c r="CD8" t="n">
         <v>157126.769440525</v>
       </c>
-      <c r="CE8">
+      <c r="CE8" t="n">
         <v>163250.968919816</v>
       </c>
-      <c r="CF8">
+      <c r="CF8" t="n">
         <v>167779.087045563</v>
       </c>
-      <c r="CG8">
+      <c r="CG8" t="n">
         <v>175697.40614158</v>
       </c>
-      <c r="CH8">
+      <c r="CH8" t="n">
         <v>166293.264833143</v>
       </c>
-      <c r="CI8">
+      <c r="CI8" t="n">
         <v>176076.355034373</v>
       </c>
-      <c r="CJ8">
+      <c r="CJ8" t="n">
         <v>170904.880172556</v>
       </c>
-      <c r="CK8">
+      <c r="CK8" t="n">
         <v>169911.477425348</v>
       </c>
-      <c r="CL8">
+      <c r="CL8" t="n">
         <v>162273.623329081</v>
       </c>
-      <c r="CM8">
+      <c r="CM8" t="n">
         <v>173612.11675412</v>
       </c>
-      <c r="CN8">
+      <c r="CN8" t="n">
         <v>177357.716121021</v>
       </c>
-      <c r="CO8">
+      <c r="CO8" t="n">
         <v>181718.839819435</v>
       </c>
-      <c r="CP8">
+      <c r="CP8" t="n">
         <v>174399.987898458</v>
       </c>
-      <c r="CQ8">
+      <c r="CQ8" t="n">
         <v>181312.058522087</v>
       </c>
-      <c r="CR8">
+      <c r="CR8" t="n">
         <v>181033.734476533</v>
       </c>
-      <c r="CS8">
+      <c r="CS8" t="n">
         <v>185938.660540876</v>
       </c>
-      <c r="CT8">
+      <c r="CT8" t="n">
         <v>174239.584</v>
       </c>
-      <c r="CU8">
+      <c r="CU8" t="n">
         <v>175303.483</v>
       </c>
-      <c r="CV8">
+      <c r="CV8" t="n">
         <v>186442.421</v>
       </c>
-      <c r="CW8">
+      <c r="CW8" t="n">
         <v>192792.755</v>
       </c>
-      <c r="CX8">
+      <c r="CX8" t="n">
         <v>178408.974</v>
       </c>
-      <c r="CY8">
+      <c r="CY8" t="n">
         <v>180167.829</v>
       </c>
-      <c r="CZ8">
+      <c r="CZ8" t="n">
         <v>183775.096</v>
       </c>
-      <c r="DA8">
+      <c r="DA8" t="n">
         <v>196878.1</v>
       </c>
-      <c r="DB8">
+      <c r="DB8" t="n">
         <v>201681.721</v>
       </c>
-      <c r="DC8">
+      <c r="DC8" t="n">
         <v>197548.721</v>
       </c>
-      <c r="DD8">
+      <c r="DD8" t="n">
         <v>206192.15</v>
       </c>
-      <c r="DE8">
+      <c r="DE8" t="n">
         <v>209148.248</v>
       </c>
-      <c r="DF8">
+      <c r="DF8" t="n">
         <v>197630.047</v>
       </c>
-      <c r="DG8">
+      <c r="DG8" t="n">
         <v>204802.862</v>
       </c>
-      <c r="DH8">
+      <c r="DH8" t="n">
         <v>211002.834</v>
       </c>
-      <c r="DI8">
+      <c r="DI8" t="n">
         <v>213258.071</v>
       </c>
-      <c r="DJ8">
+      <c r="DJ8" t="n">
         <v>194490.7</v>
       </c>
-      <c r="DK8">
+      <c r="DK8" t="n">
         <v>200172.726</v>
       </c>
-      <c r="DL8">
+      <c r="DL8" t="n">
         <v>204005.311</v>
       </c>
-      <c r="DM8">
+      <c r="DM8" t="n">
         <v>208282.818</v>
       </c>
-      <c r="DN8">
+      <c r="DN8" t="n">
         <v>190703.233</v>
       </c>
-      <c r="DO8">
+      <c r="DO8" t="n">
         <v>163060.606</v>
       </c>
-      <c r="DP8">
+      <c r="DP8" t="n">
         <v>188050.448</v>
       </c>
-      <c r="DQ8">
+      <c r="DQ8" t="n">
         <v>201272.927</v>
       </c>
-      <c r="DR8">
+      <c r="DR8" t="n">
         <v>213935.984</v>
       </c>
-      <c r="DS8">
+      <c r="DS8" t="n">
         <v>220890.251</v>
       </c>
-      <c r="DT8">
+      <c r="DT8" t="n">
         <v>209527.763</v>
       </c>
-      <c r="DU8">
+      <c r="DU8" t="n">
         <v>230507.913</v>
       </c>
-      <c r="DV8">
+      <c r="DV8" t="n">
         <v>237730.705</v>
       </c>
     </row>
-    <row r="9" spans="1:126">
-      <c r="A9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CurrentFinal consumption expenditureTotal</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>23620.2736</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>21812.87416</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>24499.66833</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>25905.80822</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>25489.0528</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>23835.44332</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>25951.40223</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>27408.07018</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>25976.24446</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>27044.76318</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>28532.29839</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>31395.51881</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>30426.77827</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>29117.01553</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>31845.58635</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>35760.31978</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>34577.25855</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>34239.51653</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>35469.62903</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>40165.07626</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>36739.76811</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>35969.37372</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>39846.54052</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>43627.25748</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>40246.97244</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>40582.55578</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>42738.99819</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>46798.21767</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>38600.52421</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>38290.58819</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="n">
         <v>39003.13357</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="n">
         <v>40758.53978</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="n">
         <v>38992.72715</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="n">
         <v>40097.47396</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" t="n">
         <v>43733.95509</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" t="n">
         <v>47407.4404</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" t="n">
         <v>45931</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" t="n">
         <v>45538</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" t="n">
         <v>48031</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" t="n">
         <v>52670</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" t="n">
         <v>48527</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" t="n">
         <v>48007</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" t="n">
         <v>51240</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" t="n">
         <v>57292</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" t="n">
         <v>52028</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" t="n">
         <v>51756</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" t="n">
         <v>56079</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" t="n">
         <v>62278</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" t="n">
         <v>57436</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" t="n">
         <v>55710</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" t="n">
         <v>59864</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" t="n">
         <v>67969</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" t="n">
         <v>63579</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" t="n">
         <v>63056</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" t="n">
         <v>65975</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" t="n">
         <v>75597</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" t="n">
         <v>70986</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>69625</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>75281</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>86663</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>77893</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>77443</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>82621</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>93274</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>84932</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>87684</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>97650</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>107111</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>99480</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>101917</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>112159</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>119239</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" t="n">
         <v>102255</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" t="n">
         <v>103945</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" t="n">
         <v>114038</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" t="n">
         <v>120948</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" t="n">
         <v>114938</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" t="n">
         <v>119709</v>
       </c>
-      <c r="CB9">
+      <c r="CB9" t="n">
         <v>126911</v>
       </c>
-      <c r="CC9">
+      <c r="CC9" t="n">
         <v>137033</v>
       </c>
-      <c r="CD9">
+      <c r="CD9" t="n">
         <v>127340</v>
       </c>
-      <c r="CE9">
+      <c r="CE9" t="n">
         <v>131209</v>
       </c>
-      <c r="CF9">
+      <c r="CF9" t="n">
         <v>143365</v>
       </c>
-      <c r="CG9">
+      <c r="CG9" t="n">
         <v>156418</v>
       </c>
-      <c r="CH9">
+      <c r="CH9" t="n">
         <v>142256</v>
       </c>
-      <c r="CI9">
+      <c r="CI9" t="n">
         <v>147741</v>
       </c>
-      <c r="CJ9">
+      <c r="CJ9" t="n">
         <v>158172</v>
       </c>
-      <c r="CK9">
+      <c r="CK9" t="n">
         <v>168510</v>
       </c>
-      <c r="CL9">
+      <c r="CL9" t="n">
         <v>151312</v>
       </c>
-      <c r="CM9">
+      <c r="CM9" t="n">
         <v>160684</v>
       </c>
-      <c r="CN9">
+      <c r="CN9" t="n">
         <v>172664</v>
       </c>
-      <c r="CO9">
+      <c r="CO9" t="n">
         <v>182796</v>
       </c>
-      <c r="CP9">
+      <c r="CP9" t="n">
         <v>167630</v>
       </c>
-      <c r="CQ9">
+      <c r="CQ9" t="n">
         <v>173241</v>
       </c>
-      <c r="CR9">
+      <c r="CR9" t="n">
         <v>188096</v>
       </c>
-      <c r="CS9">
+      <c r="CS9" t="n">
         <v>198494</v>
       </c>
-      <c r="CT9">
+      <c r="CT9" t="n">
         <v>184830.494</v>
       </c>
-      <c r="CU9">
+      <c r="CU9" t="n">
         <v>189279.981</v>
       </c>
-      <c r="CV9">
+      <c r="CV9" t="n">
         <v>201919.615</v>
       </c>
-      <c r="CW9">
+      <c r="CW9" t="n">
         <v>213090.467</v>
       </c>
-      <c r="CX9">
+      <c r="CX9" t="n">
         <v>198406.101</v>
       </c>
-      <c r="CY9">
+      <c r="CY9" t="n">
         <v>203550.066</v>
       </c>
-      <c r="CZ9">
+      <c r="CZ9" t="n">
         <v>215599.857</v>
       </c>
-      <c r="DA9">
+      <c r="DA9" t="n">
         <v>224147.953</v>
       </c>
-      <c r="DB9">
+      <c r="DB9" t="n">
         <v>219633.781</v>
       </c>
-      <c r="DC9">
+      <c r="DC9" t="n">
         <v>223611.735</v>
       </c>
-      <c r="DD9">
+      <c r="DD9" t="n">
         <v>237232.321</v>
       </c>
-      <c r="DE9">
+      <c r="DE9" t="n">
         <v>246988.773</v>
       </c>
-      <c r="DF9">
+      <c r="DF9" t="n">
         <v>235889.497</v>
       </c>
-      <c r="DG9">
+      <c r="DG9" t="n">
         <v>242606.233</v>
       </c>
-      <c r="DH9">
+      <c r="DH9" t="n">
         <v>258870.603</v>
       </c>
-      <c r="DI9">
+      <c r="DI9" t="n">
         <v>267310.27</v>
       </c>
-      <c r="DJ9">
+      <c r="DJ9" t="n">
         <v>254700.621</v>
       </c>
-      <c r="DK9">
+      <c r="DK9" t="n">
         <v>261046.747</v>
       </c>
-      <c r="DL9">
+      <c r="DL9" t="n">
         <v>277061.908</v>
       </c>
-      <c r="DM9">
+      <c r="DM9" t="n">
         <v>287659.457</v>
       </c>
-      <c r="DN9">
+      <c r="DN9" t="n">
         <v>273542.584</v>
       </c>
-      <c r="DO9">
+      <c r="DO9" t="n">
         <v>220148.911</v>
       </c>
-      <c r="DP9">
+      <c r="DP9" t="n">
         <v>274221.11</v>
       </c>
-      <c r="DQ9">
+      <c r="DQ9" t="n">
         <v>280429.891</v>
       </c>
-      <c r="DR9">
+      <c r="DR9" t="n">
         <v>273179.64</v>
       </c>
-      <c r="DS9">
+      <c r="DS9" t="n">
         <v>249430.361</v>
       </c>
-      <c r="DT9">
+      <c r="DT9" t="n">
         <v>272867.203</v>
       </c>
-      <c r="DU9">
+      <c r="DU9" t="n">
         <v>295875.573</v>
       </c>
-      <c r="DV9">
+      <c r="DV9" t="n">
         <v>294101.826</v>
       </c>
     </row>
-    <row r="10" spans="1:126">
-      <c r="A10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CurrentFinal consumption expenditurePrivate sector</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>20093.00786</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>17624.2461</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>19297.57825</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>19489.65334</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>21936.71171</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>18995.90099</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>20855.88238</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>20412.04785</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>22366.43903</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>20925.33326</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>22463.01916</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>24469.4985</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>26149.34168</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>23604.61801</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>25670.7817</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>26677.81947</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>30460.72212</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>27363.64692</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>27935.53151</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>29932.24432</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>31690.21974</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>29433.06612</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>31452.5675</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>34165.49252</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>34802.48732</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>33094.42973</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>35059.67261</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>35709.68945</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>33374.40359</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>30996.7961</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>31164.99745</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>32207.84583</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>32879.56606</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>32300.0852799999</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>33719.48765</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>36807.88149</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>39192</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>37196</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>38813</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>40740</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>40817</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>38562</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>40411</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>42828</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>43224</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>40876</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>42492</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>45893</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>46795</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>43943</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>46108</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>49828</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>51269</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>49695</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>51574</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>56034</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>58683.3144481734</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>56297.2555194782</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>60329.9380888554</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>64877.4805691043</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>65243.6073332396</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>63286.5789281513</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>65941.24751948479</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>70112.27990900179</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>71084.10519324589</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>71788.77664218641</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>77732.4288495901</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>79812.6010589709</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>81866.3148265842</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>82444.2246059538</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>91237.9520027836</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>88666.2130490139</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" t="n">
         <v>84027</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" t="n">
         <v>83916</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" t="n">
         <v>90436</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" t="n">
         <v>89789</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" t="n">
         <v>93283</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" t="n">
         <v>95937</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" t="n">
         <v>103460</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" t="n">
         <v>102565</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" t="n">
         <v>103145</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" t="n">
         <v>105843</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" t="n">
         <v>114707</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" t="n">
         <v>113645</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" t="n">
         <v>114086</v>
       </c>
-      <c r="CI10">
+      <c r="CI10" t="n">
         <v>117998</v>
       </c>
-      <c r="CJ10">
+      <c r="CJ10" t="n">
         <v>127050</v>
       </c>
-      <c r="CK10">
+      <c r="CK10" t="n">
         <v>123103</v>
       </c>
-      <c r="CL10">
+      <c r="CL10" t="n">
         <v>123592</v>
       </c>
-      <c r="CM10">
+      <c r="CM10" t="n">
         <v>128328</v>
       </c>
-      <c r="CN10">
+      <c r="CN10" t="n">
         <v>140069</v>
       </c>
-      <c r="CO10">
+      <c r="CO10" t="n">
         <v>135760</v>
       </c>
-      <c r="CP10">
+      <c r="CP10" t="n">
         <v>136241</v>
       </c>
-      <c r="CQ10">
+      <c r="CQ10" t="n">
         <v>140561</v>
       </c>
-      <c r="CR10">
+      <c r="CR10" t="n">
         <v>153445</v>
       </c>
-      <c r="CS10">
+      <c r="CS10" t="n">
         <v>149738</v>
       </c>
-      <c r="CT10">
+      <c r="CT10" t="n">
         <v>152097.448</v>
       </c>
-      <c r="CU10">
+      <c r="CU10" t="n">
         <v>154316.684</v>
       </c>
-      <c r="CV10">
+      <c r="CV10" t="n">
         <v>165970.299</v>
       </c>
-      <c r="CW10">
+      <c r="CW10" t="n">
         <v>162715.003</v>
       </c>
-      <c r="CX10">
+      <c r="CX10" t="n">
         <v>164480.204</v>
       </c>
-      <c r="CY10">
+      <c r="CY10" t="n">
         <v>166337.239</v>
       </c>
-      <c r="CZ10">
+      <c r="CZ10" t="n">
         <v>178504.909</v>
       </c>
-      <c r="DA10">
+      <c r="DA10" t="n">
         <v>175358.387</v>
       </c>
-      <c r="DB10">
+      <c r="DB10" t="n">
         <v>182570.744</v>
       </c>
-      <c r="DC10">
+      <c r="DC10" t="n">
         <v>184594.268</v>
       </c>
-      <c r="DD10">
+      <c r="DD10" t="n">
         <v>198415.241</v>
       </c>
-      <c r="DE10">
+      <c r="DE10" t="n">
         <v>194566.22</v>
       </c>
-      <c r="DF10">
+      <c r="DF10" t="n">
         <v>198560.996</v>
       </c>
-      <c r="DG10">
+      <c r="DG10" t="n">
         <v>202223.726</v>
       </c>
-      <c r="DH10">
+      <c r="DH10" t="n">
         <v>217974.727</v>
       </c>
-      <c r="DI10">
+      <c r="DI10" t="n">
         <v>212628.341</v>
       </c>
-      <c r="DJ10">
+      <c r="DJ10" t="n">
         <v>215316.428</v>
       </c>
-      <c r="DK10">
+      <c r="DK10" t="n">
         <v>220640.364</v>
       </c>
-      <c r="DL10">
+      <c r="DL10" t="n">
         <v>235895.194</v>
       </c>
-      <c r="DM10">
+      <c r="DM10" t="n">
         <v>232336.901</v>
       </c>
-      <c r="DN10">
+      <c r="DN10" t="n">
         <v>231950.963</v>
       </c>
-      <c r="DO10">
+      <c r="DO10" t="n">
         <v>178814.506</v>
       </c>
-      <c r="DP10">
+      <c r="DP10" t="n">
         <v>230057.063</v>
       </c>
-      <c r="DQ10">
+      <c r="DQ10" t="n">
         <v>222132.097</v>
       </c>
-      <c r="DR10">
+      <c r="DR10" t="n">
         <v>229048.522</v>
       </c>
-      <c r="DS10">
+      <c r="DS10" t="n">
         <v>204395.58</v>
       </c>
-      <c r="DT10">
+      <c r="DT10" t="n">
         <v>225308.899</v>
       </c>
-      <c r="DU10">
+      <c r="DU10" t="n">
         <v>236128.199</v>
       </c>
-      <c r="DV10">
+      <c r="DV10" t="n">
         <v>246665.616</v>
       </c>
     </row>
-    <row r="11" spans="1:126">
-      <c r="A11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CurrentFinal consumption expenditurePublic sector</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>3527.265736</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>4188.628062</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>5202.090078</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>6416.154884</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>3552.341085</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>4839.542326</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>5095.519845</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>6996.022326</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>3609.805426</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>6119.429922</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>6069.279225</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>6926.02031</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>4277.436589</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>5512.397519</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>6174.804651</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>9082.500309999999</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>4116.536434</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>6875.869612</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>7534.097519</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>10232.83194</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>5049.548372</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>6536.307597</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>8393.973023</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>9461.764961000001</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>5444.485116</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>7488.126047</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>7679.325581</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>11088.52822</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>5226.12062</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>7293.792093</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>7838.136124</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>8550.693953</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>6113.161085</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>7797.388682</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" t="n">
         <v>10014.46744</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" t="n">
         <v>10599.55891</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" t="n">
         <v>6739</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" t="n">
         <v>8342</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" t="n">
         <v>9218</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" t="n">
         <v>11930</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" t="n">
         <v>7710</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" t="n">
         <v>9445</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" t="n">
         <v>10829</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" t="n">
         <v>14464</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="n">
         <v>8804</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" t="n">
         <v>10880</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" t="n">
         <v>13587</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" t="n">
         <v>16385</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" t="n">
         <v>10641</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" t="n">
         <v>11767</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" t="n">
         <v>13756</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" t="n">
         <v>18141</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" t="n">
         <v>12310</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" t="n">
         <v>13361</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" t="n">
         <v>14401</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" t="n">
         <v>19563</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" t="n">
         <v>12303.3678242149</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>13327.8642289822</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>14950.5231417976</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>21786.4506207557</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>12649.3243822475</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>14156.3578668628</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>16679.6964233895</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>23161.9424756925</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>13848.2665870732</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>15894.8291539461</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>19918.3776368131</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>27297.9530949695</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>17613.7640035603</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>19472.7618337265</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>20921.116989518</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" t="n">
         <v>30573.109230152</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" t="n">
         <v>18228</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" t="n">
         <v>20029</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" t="n">
         <v>23602</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" t="n">
         <v>31159</v>
       </c>
-      <c r="BZ11">
+      <c r="BZ11" t="n">
         <v>21655</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" t="n">
         <v>23772</v>
       </c>
-      <c r="CB11">
+      <c r="CB11" t="n">
         <v>23451</v>
       </c>
-      <c r="CC11">
+      <c r="CC11" t="n">
         <v>34468</v>
       </c>
-      <c r="CD11">
+      <c r="CD11" t="n">
         <v>24195</v>
       </c>
-      <c r="CE11">
+      <c r="CE11" t="n">
         <v>25366</v>
       </c>
-      <c r="CF11">
+      <c r="CF11" t="n">
         <v>28658</v>
       </c>
-      <c r="CG11">
+      <c r="CG11" t="n">
         <v>42773</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" t="n">
         <v>28170</v>
       </c>
-      <c r="CI11">
+      <c r="CI11" t="n">
         <v>29743</v>
       </c>
-      <c r="CJ11">
+      <c r="CJ11" t="n">
         <v>31122</v>
       </c>
-      <c r="CK11">
+      <c r="CK11" t="n">
         <v>45407</v>
       </c>
-      <c r="CL11">
+      <c r="CL11" t="n">
         <v>27720</v>
       </c>
-      <c r="CM11">
+      <c r="CM11" t="n">
         <v>32356</v>
       </c>
-      <c r="CN11">
+      <c r="CN11" t="n">
         <v>32595</v>
       </c>
-      <c r="CO11">
+      <c r="CO11" t="n">
         <v>47036</v>
       </c>
-      <c r="CP11">
+      <c r="CP11" t="n">
         <v>31388</v>
       </c>
-      <c r="CQ11">
+      <c r="CQ11" t="n">
         <v>32680</v>
       </c>
-      <c r="CR11">
+      <c r="CR11" t="n">
         <v>34651</v>
       </c>
-      <c r="CS11">
+      <c r="CS11" t="n">
         <v>48756</v>
       </c>
-      <c r="CT11">
+      <c r="CT11" t="n">
         <v>32733.046</v>
       </c>
-      <c r="CU11">
+      <c r="CU11" t="n">
         <v>34963.297</v>
       </c>
-      <c r="CV11">
+      <c r="CV11" t="n">
         <v>35949.316</v>
       </c>
-      <c r="CW11">
+      <c r="CW11" t="n">
         <v>50375.464</v>
       </c>
-      <c r="CX11">
+      <c r="CX11" t="n">
         <v>33925.897</v>
       </c>
-      <c r="CY11">
+      <c r="CY11" t="n">
         <v>37212.827</v>
       </c>
-      <c r="CZ11">
+      <c r="CZ11" t="n">
         <v>37094.948</v>
       </c>
-      <c r="DA11">
+      <c r="DA11" t="n">
         <v>48789.566</v>
       </c>
-      <c r="DB11">
+      <c r="DB11" t="n">
         <v>37063.037</v>
       </c>
-      <c r="DC11">
+      <c r="DC11" t="n">
         <v>39017.467</v>
       </c>
-      <c r="DD11">
+      <c r="DD11" t="n">
         <v>38817.08</v>
       </c>
-      <c r="DE11">
+      <c r="DE11" t="n">
         <v>52422.553</v>
       </c>
-      <c r="DF11">
+      <c r="DF11" t="n">
         <v>37328.501</v>
       </c>
-      <c r="DG11">
+      <c r="DG11" t="n">
         <v>40382.507</v>
       </c>
-      <c r="DH11">
+      <c r="DH11" t="n">
         <v>40895.876</v>
       </c>
-      <c r="DI11">
+      <c r="DI11" t="n">
         <v>54681.929</v>
       </c>
-      <c r="DJ11">
+      <c r="DJ11" t="n">
         <v>39385.193</v>
       </c>
-      <c r="DK11">
+      <c r="DK11" t="n">
         <v>40406.383</v>
       </c>
-      <c r="DL11">
+      <c r="DL11" t="n">
         <v>41166.714</v>
       </c>
-      <c r="DM11">
+      <c r="DM11" t="n">
         <v>55322.556</v>
       </c>
-      <c r="DN11">
+      <c r="DN11" t="n">
         <v>41591.621</v>
       </c>
-      <c r="DO11">
+      <c r="DO11" t="n">
         <v>41334.405</v>
       </c>
-      <c r="DP11">
+      <c r="DP11" t="n">
         <v>44164.047</v>
       </c>
-      <c r="DQ11">
+      <c r="DQ11" t="n">
         <v>58297.794</v>
       </c>
-      <c r="DR11">
+      <c r="DR11" t="n">
         <v>44131.118</v>
       </c>
-      <c r="DS11">
+      <c r="DS11" t="n">
         <v>45034.781</v>
       </c>
-      <c r="DT11">
+      <c r="DT11" t="n">
         <v>47558.304</v>
       </c>
-      <c r="DU11">
+      <c r="DU11" t="n">
         <v>59747.374</v>
       </c>
-      <c r="DV11">
+      <c r="DV11" t="n">
         <v>47436.21</v>
       </c>
     </row>
-    <row r="12" spans="1:126">
-      <c r="A12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CurrentGross fixed capital formationTotal</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>11509.64105</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>11551.55376</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>13256.68577</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>13901.73271</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>13455.00448</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>12779.2897</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>15420.81315</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>14764.52133</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>14834.0351</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>17125.94515</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>17596.1853899999</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>18869.92309</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>17924.3313</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>18136.96167</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>22219.87368</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>22132.9814699999</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>24270.53004</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>26616.61994</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>19961.69826</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>28276.77245</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>25341.85998</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>27226.91</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>27628.65873</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>30027.90622</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>26716.80156</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>32561.06996</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="n">
         <v>33598.6652699999</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" t="n">
         <v>31321.06688</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" t="n">
         <v>22726.91534</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" t="n">
         <v>20065.96892</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="n">
         <v>16856.06814</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="n">
         <v>18024.51292</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" t="n">
         <v>15527.12833</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="n">
         <v>16402.18408</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" t="n">
         <v>16735.4413</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" t="n">
         <v>18641.9588</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" t="n">
         <v>20297</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" t="n">
         <v>23673</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" t="n">
         <v>24205</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" t="n">
         <v>21965</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" t="n">
         <v>22370</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" t="n">
         <v>23910</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" t="n">
         <v>21896</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" t="n">
         <v>20404</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="n">
         <v>20656</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" t="n">
         <v>23664</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" t="n">
         <v>22785</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" t="n">
         <v>22890</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" t="n">
         <v>21819</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" t="n">
         <v>24098</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" t="n">
         <v>23891</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" t="n">
         <v>24056</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" t="n">
         <v>23217</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" t="n">
         <v>25540</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" t="n">
         <v>25312</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" t="n">
         <v>25267</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" t="n">
         <v>27211.8831851661</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" t="n">
         <v>30950.1618657172</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" t="n">
         <v>31785.7551555729</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" t="n">
         <v>31289.2792656293</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" t="n">
         <v>31107.56464079</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="n">
         <v>33532.9144579151</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" t="n">
         <v>32544.8189187798</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" t="n">
         <v>33838.3763203309</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" t="n">
         <v>34502.6699595173</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" t="n">
         <v>37269.6649891253</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" t="n">
         <v>38199.6944553008</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" t="n">
         <v>39091.9903755375</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" t="n">
         <v>38209.8700121567</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" t="n">
         <v>41296.6134736322</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" t="n">
         <v>40828.9116296608</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" t="n">
         <v>38045.9100359793</v>
       </c>
-      <c r="BV12">
+      <c r="BV12" t="n">
         <v>36103</v>
       </c>
-      <c r="BW12">
+      <c r="BW12" t="n">
         <v>39546</v>
       </c>
-      <c r="BX12">
+      <c r="BX12" t="n">
         <v>39080</v>
       </c>
-      <c r="BY12">
+      <c r="BY12" t="n">
         <v>41931</v>
       </c>
-      <c r="BZ12">
+      <c r="BZ12" t="n">
         <v>41481</v>
       </c>
-      <c r="CA12">
+      <c r="CA12" t="n">
         <v>47536</v>
       </c>
-      <c r="CB12">
+      <c r="CB12" t="n">
         <v>46356</v>
       </c>
-      <c r="CC12">
+      <c r="CC12" t="n">
         <v>48918</v>
       </c>
-      <c r="CD12">
+      <c r="CD12" t="n">
         <v>47086</v>
       </c>
-      <c r="CE12">
+      <c r="CE12" t="n">
         <v>50717</v>
       </c>
-      <c r="CF12">
+      <c r="CF12" t="n">
         <v>50849</v>
       </c>
-      <c r="CG12">
+      <c r="CG12" t="n">
         <v>53599</v>
       </c>
-      <c r="CH12">
+      <c r="CH12" t="n">
         <v>55289</v>
       </c>
-      <c r="CI12">
+      <c r="CI12" t="n">
         <v>65202</v>
       </c>
-      <c r="CJ12">
+      <c r="CJ12" t="n">
         <v>63019</v>
       </c>
-      <c r="CK12">
+      <c r="CK12" t="n">
         <v>62834</v>
       </c>
-      <c r="CL12">
+      <c r="CL12" t="n">
         <v>62854</v>
       </c>
-      <c r="CM12">
+      <c r="CM12" t="n">
         <v>69769</v>
       </c>
-      <c r="CN12">
+      <c r="CN12" t="n">
         <v>69362</v>
       </c>
-      <c r="CO12">
+      <c r="CO12" t="n">
         <v>67714</v>
       </c>
-      <c r="CP12">
+      <c r="CP12" t="n">
         <v>68278</v>
       </c>
-      <c r="CQ12">
+      <c r="CQ12" t="n">
         <v>75806</v>
       </c>
-      <c r="CR12">
+      <c r="CR12" t="n">
         <v>71380</v>
       </c>
-      <c r="CS12">
+      <c r="CS12" t="n">
         <v>71929</v>
       </c>
-      <c r="CT12">
+      <c r="CT12" t="n">
         <v>75576.072</v>
       </c>
-      <c r="CU12">
+      <c r="CU12" t="n">
         <v>77718.531</v>
       </c>
-      <c r="CV12">
+      <c r="CV12" t="n">
         <v>75995.38400000001</v>
       </c>
-      <c r="CW12">
+      <c r="CW12" t="n">
         <v>75133.42600000001</v>
       </c>
-      <c r="CX12">
+      <c r="CX12" t="n">
         <v>77251.719</v>
       </c>
-      <c r="CY12">
+      <c r="CY12" t="n">
         <v>84200.55499999999</v>
       </c>
-      <c r="CZ12">
+      <c r="CZ12" t="n">
         <v>79108.236</v>
       </c>
-      <c r="DA12">
+      <c r="DA12" t="n">
         <v>78334.696</v>
       </c>
-      <c r="DB12">
+      <c r="DB12" t="n">
         <v>86106.00900000001</v>
       </c>
-      <c r="DC12">
+      <c r="DC12" t="n">
         <v>89172.424</v>
       </c>
-      <c r="DD12">
+      <c r="DD12" t="n">
         <v>85880.318</v>
       </c>
-      <c r="DE12">
+      <c r="DE12" t="n">
         <v>82782.78599999999</v>
       </c>
-      <c r="DF12">
+      <c r="DF12" t="n">
         <v>86712.59</v>
       </c>
-      <c r="DG12">
+      <c r="DG12" t="n">
         <v>91122.167</v>
       </c>
-      <c r="DH12">
+      <c r="DH12" t="n">
         <v>88493.67</v>
       </c>
-      <c r="DI12">
+      <c r="DI12" t="n">
         <v>84036.13099999999</v>
       </c>
-      <c r="DJ12">
+      <c r="DJ12" t="n">
         <v>84364.372</v>
       </c>
-      <c r="DK12">
+      <c r="DK12" t="n">
         <v>91775.769</v>
       </c>
-      <c r="DL12">
+      <c r="DL12" t="n">
         <v>86538.329</v>
       </c>
-      <c r="DM12">
+      <c r="DM12" t="n">
         <v>84294.958</v>
       </c>
-      <c r="DN12">
+      <c r="DN12" t="n">
         <v>80739.803</v>
       </c>
-      <c r="DO12">
+      <c r="DO12" t="n">
         <v>64493.733</v>
       </c>
-      <c r="DP12">
+      <c r="DP12" t="n">
         <v>77345.474</v>
       </c>
-      <c r="DQ12">
+      <c r="DQ12" t="n">
         <v>74087.478</v>
       </c>
-      <c r="DR12">
+      <c r="DR12" t="n">
         <v>78513.674</v>
       </c>
-      <c r="DS12">
+      <c r="DS12" t="n">
         <v>76528.23299999999</v>
       </c>
-      <c r="DT12">
+      <c r="DT12" t="n">
         <v>69274.567</v>
       </c>
-      <c r="DU12">
+      <c r="DU12" t="n">
         <v>73829.132</v>
       </c>
-      <c r="DV12">
+      <c r="DV12" t="n">
         <v>80585.576</v>
       </c>
     </row>
-    <row r="13" spans="1:126">
-      <c r="A13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CurrentChanges in inventories and valuables</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>-1549.699346</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>-12688.1634</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>1263.742919</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>4040.287582</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>-1420.557734</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>-3934.206972</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>2794.993464</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>11350.62527</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>-2592.056645</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>-830.1960784</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>-2887.237473</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>3841.962963</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>3620.577342</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>-9653.335512</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>-5087.257081</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>2490.588235</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>14422.35076</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>-6198.797386</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>-33632.16558</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>24859.76035</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>-1881.777778</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>-3542.169935</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>2144.673203</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" t="n">
         <v>15178.75163</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>2481.363834</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="n">
         <v>-8836.976035</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="n">
         <v>13361.54466</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" t="n">
         <v>-5170.276688</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" t="n">
         <v>-11562.78649</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" t="n">
         <v>-4828.973856</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" t="n">
         <v>-6660.017429</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" t="n">
         <v>25016.57516</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" t="n">
         <v>-2361.446623</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="n">
         <v>-9962.352940999999</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" t="n">
         <v>1526.638344</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" t="n">
         <v>3984.941176</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" t="n">
         <v>-2117</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" t="n">
         <v>1995</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" t="n">
         <v>4427</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" t="n">
         <v>1311</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" t="n">
         <v>-1808</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" t="n">
         <v>273</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" t="n">
         <v>436</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" t="n">
         <v>-1458</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" t="n">
         <v>-164</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" t="n">
         <v>4043</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" t="n">
         <v>5303</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" t="n">
         <v>-4228</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" t="n">
         <v>-1509</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" t="n">
         <v>2782</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" t="n">
         <v>2384</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" t="n">
         <v>-2195</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" t="n">
         <v>-278</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" t="n">
         <v>4961</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" t="n">
         <v>6691</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" t="n">
         <v>-1443</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" t="n">
         <v>-2643.05295118</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" t="n">
         <v>2655.91414216122</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" t="n">
         <v>5938.85737334494</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" t="n">
         <v>-5447.17433749861</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" t="n">
         <v>2226.63845251252</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" t="n">
         <v>8506.861623679601</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" t="n">
         <v>2988.44420090203</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" t="n">
         <v>-9254.84717991393</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" t="n">
         <v>4445.89236790988</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" t="n">
         <v>3530.65037399838</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" t="n">
         <v>-1277.56729988106</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" t="n">
         <v>-10.4361317831188</v>
       </c>
-      <c r="BR13">
+      <c r="BR13" t="n">
         <v>10093.8241549915</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" t="n">
         <v>1542.3149704396</v>
       </c>
-      <c r="BT13">
+      <c r="BT13" t="n">
         <v>2469.79706087927</v>
       </c>
-      <c r="BU13">
+      <c r="BU13" t="n">
         <v>-7269.07450851397</v>
       </c>
-      <c r="BV13">
+      <c r="BV13" t="n">
         <v>-9214</v>
       </c>
-      <c r="BW13">
+      <c r="BW13" t="n">
         <v>-8459</v>
       </c>
-      <c r="BX13">
+      <c r="BX13" t="n">
         <v>-5973</v>
       </c>
-      <c r="BY13">
+      <c r="BY13" t="n">
         <v>-5872</v>
       </c>
-      <c r="BZ13">
+      <c r="BZ13" t="n">
         <v>-3233</v>
       </c>
-      <c r="CA13">
+      <c r="CA13" t="n">
         <v>3575</v>
       </c>
-      <c r="CB13">
+      <c r="CB13" t="n">
         <v>6586</v>
       </c>
-      <c r="CC13">
+      <c r="CC13" t="n">
         <v>885</v>
       </c>
-      <c r="CD13">
+      <c r="CD13" t="n">
         <v>8164</v>
       </c>
-      <c r="CE13">
+      <c r="CE13" t="n">
         <v>6158</v>
       </c>
-      <c r="CF13">
+      <c r="CF13" t="n">
         <v>683</v>
       </c>
-      <c r="CG13">
+      <c r="CG13" t="n">
         <v>-5840</v>
       </c>
-      <c r="CH13">
+      <c r="CH13" t="n">
         <v>7805</v>
       </c>
-      <c r="CI13">
+      <c r="CI13" t="n">
         <v>2477</v>
       </c>
-      <c r="CJ13">
+      <c r="CJ13" t="n">
         <v>2884</v>
       </c>
-      <c r="CK13">
+      <c r="CK13" t="n">
         <v>-9426</v>
       </c>
-      <c r="CL13">
+      <c r="CL13" t="n">
         <v>3065</v>
       </c>
-      <c r="CM13">
+      <c r="CM13" t="n">
         <v>942</v>
       </c>
-      <c r="CN13">
+      <c r="CN13" t="n">
         <v>-4724</v>
       </c>
-      <c r="CO13">
+      <c r="CO13" t="n">
         <v>-4783</v>
       </c>
-      <c r="CP13">
+      <c r="CP13" t="n">
         <v>-992</v>
       </c>
-      <c r="CQ13">
+      <c r="CQ13" t="n">
         <v>-2529</v>
       </c>
-      <c r="CR13">
+      <c r="CR13" t="n">
         <v>-2588</v>
       </c>
-      <c r="CS13">
+      <c r="CS13" t="n">
         <v>-4921</v>
       </c>
-      <c r="CT13">
+      <c r="CT13" t="n">
         <v>-2430.532</v>
       </c>
-      <c r="CU13">
+      <c r="CU13" t="n">
         <v>2776.311</v>
       </c>
-      <c r="CV13">
+      <c r="CV13" t="n">
         <v>-2080.176</v>
       </c>
-      <c r="CW13">
+      <c r="CW13" t="n">
         <v>-3460.389</v>
       </c>
-      <c r="CX13">
+      <c r="CX13" t="n">
         <v>1663.9</v>
       </c>
-      <c r="CY13">
+      <c r="CY13" t="n">
         <v>-299.559</v>
       </c>
-      <c r="CZ13">
+      <c r="CZ13" t="n">
         <v>-965.3200000000001</v>
       </c>
-      <c r="DA13">
+      <c r="DA13" t="n">
         <v>5571.087</v>
       </c>
-      <c r="DB13">
+      <c r="DB13" t="n">
         <v>3661.471</v>
       </c>
-      <c r="DC13">
+      <c r="DC13" t="n">
         <v>-742.255</v>
       </c>
-      <c r="DD13">
+      <c r="DD13" t="n">
         <v>-2050.509</v>
       </c>
-      <c r="DE13">
+      <c r="DE13" t="n">
         <v>5778.463</v>
       </c>
-      <c r="DF13">
+      <c r="DF13" t="n">
         <v>-3741.844</v>
       </c>
-      <c r="DG13">
+      <c r="DG13" t="n">
         <v>1088.463</v>
       </c>
-      <c r="DH13">
+      <c r="DH13" t="n">
         <v>-1466.697</v>
       </c>
-      <c r="DI13">
+      <c r="DI13" t="n">
         <v>-267.28</v>
       </c>
-      <c r="DJ13">
+      <c r="DJ13" t="n">
         <v>-8658.277</v>
       </c>
-      <c r="DK13">
+      <c r="DK13" t="n">
         <v>-5990.901</v>
       </c>
-      <c r="DL13">
+      <c r="DL13" t="n">
         <v>-9670.518</v>
       </c>
-      <c r="DM13">
+      <c r="DM13" t="n">
         <v>-4249.053</v>
       </c>
-      <c r="DN13">
+      <c r="DN13" t="n">
         <v>-6895.484</v>
       </c>
-      <c r="DO13">
+      <c r="DO13" t="n">
         <v>6411.706</v>
       </c>
-      <c r="DP13">
+      <c r="DP13" t="n">
         <v>-12647.706</v>
       </c>
-      <c r="DQ13">
+      <c r="DQ13" t="n">
         <v>-4202.249</v>
       </c>
-      <c r="DR13">
+      <c r="DR13" t="n">
         <v>-2554.736</v>
       </c>
-      <c r="DS13">
+      <c r="DS13" t="n">
         <v>20706.999</v>
       </c>
-      <c r="DT13">
+      <c r="DT13" t="n">
         <v>8801.602999999999</v>
       </c>
-      <c r="DU13">
+      <c r="DU13" t="n">
         <v>19074.343</v>
       </c>
-      <c r="DV13">
+      <c r="DV13" t="n">
         <v>22196.883</v>
       </c>
     </row>
-    <row r="14" spans="1:126">
-      <c r="A14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CurrentExports of goods and services</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>23787</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>23876</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>28457</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>29041</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>25238</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>27655</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>29868</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>31733</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>30125</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>33892</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>36068</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>35811</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>38113</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>42086</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>45897</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>48159</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>46188</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>49962</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>55691</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>57482</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>54783</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>58135</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>59117</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>60324</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>58308</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="n">
         <v>59276</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="n">
         <v>67764</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" t="n">
         <v>77537</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="n">
         <v>80718</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" t="n">
         <v>78896</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="n">
         <v>83652</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="n">
         <v>84570</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" t="n">
         <v>78711</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="n">
         <v>87727</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" t="n">
         <v>96647</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" t="n">
         <v>101777</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" t="n">
         <v>97604</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" t="n">
         <v>104908</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" t="n">
         <v>114892</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" t="n">
         <v>109600</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" t="n">
         <v>101462</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" t="n">
         <v>97351</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" t="n">
         <v>95573</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" t="n">
         <v>94870</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" t="n">
         <v>96007</v>
       </c>
-      <c r="AU14">
+      <c r="AU14" t="n">
         <v>101934</v>
       </c>
-      <c r="AV14">
+      <c r="AV14" t="n">
         <v>108070</v>
       </c>
-      <c r="AW14">
+      <c r="AW14" t="n">
         <v>109029</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" t="n">
         <v>103952</v>
       </c>
-      <c r="AY14">
+      <c r="AY14" t="n">
         <v>106497</v>
       </c>
-      <c r="AZ14">
+      <c r="AZ14" t="n">
         <v>113012</v>
       </c>
-      <c r="BA14">
+      <c r="BA14" t="n">
         <v>124384</v>
       </c>
-      <c r="BB14">
+      <c r="BB14" t="n">
         <v>124667</v>
       </c>
-      <c r="BC14">
+      <c r="BC14" t="n">
         <v>134785</v>
       </c>
-      <c r="BD14">
+      <c r="BD14" t="n">
         <v>143078</v>
       </c>
-      <c r="BE14">
+      <c r="BE14" t="n">
         <v>144395</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" t="n">
         <v>142438.2359</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" t="n">
         <v>150947.2477</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" t="n">
         <v>158063.5109</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" t="n">
         <v>162245.4156</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" t="n">
         <v>155409.7656</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" t="n">
         <v>161415.16957</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" t="n">
         <v>178891.2585835</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" t="n">
         <v>173788.995118304</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" t="n">
         <v>161404.2543</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" t="n">
         <v>170580.7914</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" t="n">
         <v>184680.1249</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" t="n">
         <v>189716.9146</v>
       </c>
-      <c r="BR14">
+      <c r="BR14" t="n">
         <v>176366.71181</v>
       </c>
-      <c r="BS14">
+      <c r="BS14" t="n">
         <v>201944.53435</v>
       </c>
-      <c r="BT14">
+      <c r="BT14" t="n">
         <v>212122.94076</v>
       </c>
-      <c r="BU14">
+      <c r="BU14" t="n">
         <v>175661.51015</v>
       </c>
-      <c r="BV14">
+      <c r="BV14" t="n">
         <v>141705</v>
       </c>
-      <c r="BW14">
+      <c r="BW14" t="n">
         <v>153819</v>
       </c>
-      <c r="BX14">
+      <c r="BX14" t="n">
         <v>170484</v>
       </c>
-      <c r="BY14">
+      <c r="BY14" t="n">
         <v>185663</v>
       </c>
-      <c r="BZ14">
+      <c r="BZ14" t="n">
         <v>175519</v>
       </c>
-      <c r="CA14">
+      <c r="CA14" t="n">
         <v>174712</v>
       </c>
-      <c r="CB14">
+      <c r="CB14" t="n">
         <v>178856</v>
       </c>
-      <c r="CC14">
+      <c r="CC14" t="n">
         <v>184989</v>
       </c>
-      <c r="CD14">
+      <c r="CD14" t="n">
         <v>184799</v>
       </c>
-      <c r="CE14">
+      <c r="CE14" t="n">
         <v>192453</v>
       </c>
-      <c r="CF14">
+      <c r="CF14" t="n">
         <v>197130</v>
       </c>
-      <c r="CG14">
+      <c r="CG14" t="n">
         <v>202920</v>
       </c>
-      <c r="CH14">
+      <c r="CH14" t="n">
         <v>190463</v>
       </c>
-      <c r="CI14">
+      <c r="CI14" t="n">
         <v>195980</v>
       </c>
-      <c r="CJ14">
+      <c r="CJ14" t="n">
         <v>189667</v>
       </c>
-      <c r="CK14">
+      <c r="CK14" t="n">
         <v>194091</v>
       </c>
-      <c r="CL14">
+      <c r="CL14" t="n">
         <v>183584</v>
       </c>
-      <c r="CM14">
+      <c r="CM14" t="n">
         <v>184283</v>
       </c>
-      <c r="CN14">
+      <c r="CN14" t="n">
         <v>196404</v>
       </c>
-      <c r="CO14">
+      <c r="CO14" t="n">
         <v>206096</v>
       </c>
-      <c r="CP14">
+      <c r="CP14" t="n">
         <v>201842</v>
       </c>
-      <c r="CQ14">
+      <c r="CQ14" t="n">
         <v>206750</v>
       </c>
-      <c r="CR14">
+      <c r="CR14" t="n">
         <v>201161</v>
       </c>
-      <c r="CS14">
+      <c r="CS14" t="n">
         <v>206731</v>
       </c>
-      <c r="CT14">
+      <c r="CT14" t="n">
         <v>193829.198</v>
       </c>
-      <c r="CU14">
+      <c r="CU14" t="n">
         <v>194753.629</v>
       </c>
-      <c r="CV14">
+      <c r="CV14" t="n">
         <v>209067.659</v>
       </c>
-      <c r="CW14">
+      <c r="CW14" t="n">
         <v>219719.761</v>
       </c>
-      <c r="CX14">
+      <c r="CX14" t="n">
         <v>197023.824</v>
       </c>
-      <c r="CY14">
+      <c r="CY14" t="n">
         <v>199691.4</v>
       </c>
-      <c r="CZ14">
+      <c r="CZ14" t="n">
         <v>209548.925</v>
       </c>
-      <c r="DA14">
+      <c r="DA14" t="n">
         <v>228227.053</v>
       </c>
-      <c r="DB14">
+      <c r="DB14" t="n">
         <v>231567.028</v>
       </c>
-      <c r="DC14">
+      <c r="DC14" t="n">
         <v>234845.699</v>
       </c>
-      <c r="DD14">
+      <c r="DD14" t="n">
         <v>245639.68</v>
       </c>
-      <c r="DE14">
+      <c r="DE14" t="n">
         <v>248725.619</v>
       </c>
-      <c r="DF14">
+      <c r="DF14" t="n">
         <v>237090.245</v>
       </c>
-      <c r="DG14">
+      <c r="DG14" t="n">
         <v>241231.778</v>
       </c>
-      <c r="DH14">
+      <c r="DH14" t="n">
         <v>252773.63</v>
       </c>
-      <c r="DI14">
+      <c r="DI14" t="n">
         <v>261415.551</v>
       </c>
-      <c r="DJ14">
+      <c r="DJ14" t="n">
         <v>240098.356</v>
       </c>
-      <c r="DK14">
+      <c r="DK14" t="n">
         <v>244462.915</v>
       </c>
-      <c r="DL14">
+      <c r="DL14" t="n">
         <v>249305.33</v>
       </c>
-      <c r="DM14">
+      <c r="DM14" t="n">
         <v>253614.823</v>
       </c>
-      <c r="DN14">
+      <c r="DN14" t="n">
         <v>224436.974</v>
       </c>
-      <c r="DO14">
+      <c r="DO14" t="n">
         <v>184094.056</v>
       </c>
-      <c r="DP14">
+      <c r="DP14" t="n">
         <v>226585.985</v>
       </c>
-      <c r="DQ14">
+      <c r="DQ14" t="n">
         <v>238360.409</v>
       </c>
-      <c r="DR14">
+      <c r="DR14" t="n">
         <v>246045.347</v>
       </c>
-      <c r="DS14">
+      <c r="DS14" t="n">
         <v>265150.209</v>
       </c>
-      <c r="DT14">
+      <c r="DT14" t="n">
         <v>257797.392</v>
       </c>
-      <c r="DU14">
+      <c r="DU14" t="n">
         <v>294824.232</v>
       </c>
-      <c r="DV14">
+      <c r="DV14" t="n">
         <v>292981.629</v>
       </c>
     </row>
-    <row r="15" spans="1:126">
-      <c r="A15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>CurrentImports of goods and services</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>25670</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>26628</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>28619</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>29190</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>27245</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>27140</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>29192</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>28873</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>29372</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>33493</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>35264</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>37939</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>39447</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>42284</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>46525</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>49133</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>47499</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>54629</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>58275</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>57674</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>55181</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>56921</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>57422</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>59318</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" t="n">
         <v>56193</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" t="n">
         <v>62918</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" t="n">
         <v>65538</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" t="n">
         <v>75660</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" t="n">
         <v>70435</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" t="n">
         <v>64899</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" t="n">
         <v>65831</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" t="n">
         <v>64371</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" t="n">
         <v>62987</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" t="n">
         <v>69423</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" t="n">
         <v>75264</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" t="n">
         <v>81840</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" t="n">
         <v>78977</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" t="n">
         <v>89387</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" t="n">
         <v>98829</v>
       </c>
-      <c r="AO15">
+      <c r="AO15" t="n">
         <v>91337</v>
       </c>
-      <c r="AP15">
+      <c r="AP15" t="n">
         <v>85394</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" t="n">
         <v>81775</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" t="n">
         <v>79065</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" t="n">
         <v>81531</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" t="n">
         <v>81027</v>
       </c>
-      <c r="AU15">
+      <c r="AU15" t="n">
         <v>87567</v>
       </c>
-      <c r="AV15">
+      <c r="AV15" t="n">
         <v>91527</v>
       </c>
-      <c r="AW15">
+      <c r="AW15" t="n">
         <v>88797</v>
       </c>
-      <c r="AX15">
+      <c r="AX15" t="n">
         <v>82406</v>
       </c>
-      <c r="AY15">
+      <c r="AY15" t="n">
         <v>86997</v>
       </c>
-      <c r="AZ15">
+      <c r="AZ15" t="n">
         <v>92323</v>
       </c>
-      <c r="BA15">
+      <c r="BA15" t="n">
         <v>103657</v>
       </c>
-      <c r="BB15">
+      <c r="BB15" t="n">
         <v>100794</v>
       </c>
-      <c r="BC15">
+      <c r="BC15" t="n">
         <v>111833</v>
       </c>
-      <c r="BD15">
+      <c r="BD15" t="n">
         <v>118254</v>
       </c>
-      <c r="BE15">
+      <c r="BE15" t="n">
         <v>119469</v>
       </c>
-      <c r="BF15">
+      <c r="BF15" t="n">
         <v>111455.3774</v>
       </c>
-      <c r="BG15">
+      <c r="BG15" t="n">
         <v>122371.8562</v>
       </c>
-      <c r="BH15">
+      <c r="BH15" t="n">
         <v>129332.8867</v>
       </c>
-      <c r="BI15">
+      <c r="BI15" t="n">
         <v>131254.301</v>
       </c>
-      <c r="BJ15">
+      <c r="BJ15" t="n">
         <v>125299.68</v>
       </c>
-      <c r="BK15">
+      <c r="BK15" t="n">
         <v>134056.54</v>
       </c>
-      <c r="BL15">
+      <c r="BL15" t="n">
         <v>141855.26</v>
       </c>
-      <c r="BM15">
+      <c r="BM15" t="n">
         <v>138231.94</v>
       </c>
-      <c r="BN15">
+      <c r="BN15" t="n">
         <v>135084.4153</v>
       </c>
-      <c r="BO15">
+      <c r="BO15" t="n">
         <v>139170.82</v>
       </c>
-      <c r="BP15">
+      <c r="BP15" t="n">
         <v>147328.397</v>
       </c>
-      <c r="BQ15">
+      <c r="BQ15" t="n">
         <v>152588.641</v>
       </c>
-      <c r="BR15">
+      <c r="BR15" t="n">
         <v>141948.25824</v>
       </c>
-      <c r="BS15">
+      <c r="BS15" t="n">
         <v>151679.03046</v>
       </c>
-      <c r="BT15">
+      <c r="BT15" t="n">
         <v>162176.2229</v>
       </c>
-      <c r="BU15">
+      <c r="BU15" t="n">
         <v>138356.61789</v>
       </c>
-      <c r="BV15">
+      <c r="BV15" t="n">
         <v>105534</v>
       </c>
-      <c r="BW15">
+      <c r="BW15" t="n">
         <v>119060</v>
       </c>
-      <c r="BX15">
+      <c r="BX15" t="n">
         <v>134864</v>
       </c>
-      <c r="BY15">
+      <c r="BY15" t="n">
         <v>147684</v>
       </c>
-      <c r="BZ15">
+      <c r="BZ15" t="n">
         <v>132056</v>
       </c>
-      <c r="CA15">
+      <c r="CA15" t="n">
         <v>146161</v>
       </c>
-      <c r="CB15">
+      <c r="CB15" t="n">
         <v>151249</v>
       </c>
-      <c r="CC15">
+      <c r="CC15" t="n">
         <v>153872</v>
       </c>
-      <c r="CD15">
+      <c r="CD15" t="n">
         <v>149091</v>
       </c>
-      <c r="CE15">
+      <c r="CE15" t="n">
         <v>156482</v>
       </c>
-      <c r="CF15">
+      <c r="CF15" t="n">
         <v>160693</v>
       </c>
-      <c r="CG15">
+      <c r="CG15" t="n">
         <v>169051</v>
       </c>
-      <c r="CH15">
+      <c r="CH15" t="n">
         <v>160857</v>
       </c>
-      <c r="CI15">
+      <c r="CI15" t="n">
         <v>171793</v>
       </c>
-      <c r="CJ15">
+      <c r="CJ15" t="n">
         <v>168539</v>
       </c>
-      <c r="CK15">
+      <c r="CK15" t="n">
         <v>164525</v>
       </c>
-      <c r="CL15">
+      <c r="CL15" t="n">
         <v>158981</v>
       </c>
-      <c r="CM15">
+      <c r="CM15" t="n">
         <v>170628</v>
       </c>
-      <c r="CN15">
+      <c r="CN15" t="n">
         <v>175461</v>
       </c>
-      <c r="CO15">
+      <c r="CO15" t="n">
         <v>178339</v>
       </c>
-      <c r="CP15">
+      <c r="CP15" t="n">
         <v>170774</v>
       </c>
-      <c r="CQ15">
+      <c r="CQ15" t="n">
         <v>180898</v>
       </c>
-      <c r="CR15">
+      <c r="CR15" t="n">
         <v>179287</v>
       </c>
-      <c r="CS15">
+      <c r="CS15" t="n">
         <v>182904</v>
       </c>
-      <c r="CT15">
+      <c r="CT15" t="n">
         <v>170162.265</v>
       </c>
-      <c r="CU15">
+      <c r="CU15" t="n">
         <v>176221.371</v>
       </c>
-      <c r="CV15">
+      <c r="CV15" t="n">
         <v>187480.806</v>
       </c>
-      <c r="CW15">
+      <c r="CW15" t="n">
         <v>194913.801</v>
       </c>
-      <c r="CX15">
+      <c r="CX15" t="n">
         <v>179335.207</v>
       </c>
-      <c r="CY15">
+      <c r="CY15" t="n">
         <v>183403.152</v>
       </c>
-      <c r="CZ15">
+      <c r="CZ15" t="n">
         <v>186547.141</v>
       </c>
-      <c r="DA15">
+      <c r="DA15" t="n">
         <v>202077.3</v>
       </c>
-      <c r="DB15">
+      <c r="DB15" t="n">
         <v>212255.499</v>
       </c>
-      <c r="DC15">
+      <c r="DC15" t="n">
         <v>212195.848</v>
       </c>
-      <c r="DD15">
+      <c r="DD15" t="n">
         <v>219055.632</v>
       </c>
-      <c r="DE15">
+      <c r="DE15" t="n">
         <v>223016.531</v>
       </c>
-      <c r="DF15">
+      <c r="DF15" t="n">
         <v>209241.391</v>
       </c>
-      <c r="DG15">
+      <c r="DG15" t="n">
         <v>222115.645</v>
       </c>
-      <c r="DH15">
+      <c r="DH15" t="n">
         <v>230753.633</v>
       </c>
-      <c r="DI15">
+      <c r="DI15" t="n">
         <v>233294.702</v>
       </c>
-      <c r="DJ15">
+      <c r="DJ15" t="n">
         <v>207994.53</v>
       </c>
-      <c r="DK15">
+      <c r="DK15" t="n">
         <v>219691.707</v>
       </c>
-      <c r="DL15">
+      <c r="DL15" t="n">
         <v>220956.549</v>
       </c>
-      <c r="DM15">
+      <c r="DM15" t="n">
         <v>224975.296</v>
       </c>
-      <c r="DN15">
+      <c r="DN15" t="n">
         <v>204101.869</v>
       </c>
-      <c r="DO15">
+      <c r="DO15" t="n">
         <v>172800.144</v>
       </c>
-      <c r="DP15">
+      <c r="DP15" t="n">
         <v>196871.745</v>
       </c>
-      <c r="DQ15">
+      <c r="DQ15" t="n">
         <v>209378.571</v>
       </c>
-      <c r="DR15">
+      <c r="DR15" t="n">
         <v>224157.09</v>
       </c>
-      <c r="DS15">
+      <c r="DS15" t="n">
         <v>239709.871</v>
       </c>
-      <c r="DT15">
+      <c r="DT15" t="n">
         <v>231615.603</v>
       </c>
-      <c r="DU15">
+      <c r="DU15" t="n">
         <v>258489.623</v>
       </c>
-      <c r="DV15">
+      <c r="DV15" t="n">
         <v>267414.084</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>